--- a/public/preprocessing/@Kanseulir.xlsx
+++ b/public/preprocessing/@Kanseulir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16146</v>
+        <v>26913</v>
       </c>
       <c r="C2" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>lu termasuk pembenci atau sebaliknya din</t>
+          <t>kepada para ayah jangan dekat kalau istri dan anak gadis sedang main peran dunia mereka penampakan di bawah ad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['lu', 'termasuk', 'pembenci', 'atau', 'sebaliknya', 'din']</t>
+          <t>['kepada', 'para', 'ayah', 'jangan', 'dekat', 'kalau', 'istri', 'dan', 'anak', 'gadis', 'sedang', 'main', 'peran', 'dunia', 'mereka', 'penampakan', 'di', 'bawah', 'ad']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kepada', 'para', 'ayah', 'jangan', 'dekat', 'kalau', 'istri', 'dan', 'anak', 'gadis', 'sedang', 'main', 'peran', 'dunia', 'mereka', 'penampakan', 'di', 'bawah', 'ada']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['lu', 'pembenci', 'din']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['lu', 'benci', 'din']</t>
+          <t>['ayah', 'istri', 'anak', 'gadis', 'main', 'peran', 'dunia', 'penampakan']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['ayah', 'istri', 'anak', 'gadis', 'main', 'peran', 'dunia', 'tampak']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16147</v>
+        <v>26914</v>
       </c>
       <c r="C3" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>bro katanya ini di perumahan elite karawang bener ga bro</t>
+          <t>haris pertama yang laporkan abu janda dicopot dari jabatan ketua umum knpi kannnnn anjing haram dikonsumsi uma</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['bro', 'katanya', 'ini', 'di', 'perumahan', 'elite', 'karawang', 'bener', 'ga', 'bro']</t>
+          <t>['haris', 'pertama', 'yang', 'laporkan', 'abu', 'janda', 'dicopot', 'dari', 'jabatan', 'ketua', 'umum', 'knpi', 'kannnnn', 'anjing', 'haram', 'dikonsumsi', 'uma']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['haris', 'pertama', 'yang', 'laporkan', 'abu', 'janda', 'dicopot', 'dari', 'jabatan', 'ketua', 'umum', 'knpi', 'kannnnn', 'anjing', 'haram', 'dikonsumsi', 'uma']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['bro', 'perumahan', 'elite', 'karawang', 'bener', 'bro']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['bro', 'rumah', 'elite', 'karawang', 'bener', 'bro']</t>
+          <t>['haris', 'laporkan', 'abu', 'janda', 'dicopot', 'jabatan', 'ketua', 'knpi', 'kannnnn', 'anjing', 'haram', 'dikonsumsi', 'uma']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['haris', 'lapor', 'abu', 'janda', 'copot', 'jabat', 'ketua', 'knpi', 'kannnnn', 'anjing', 'haram', 'konsumsi', 'uma']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16148</v>
+        <v>26915</v>
       </c>
       <c r="C4" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt jokowi minta aparat hukum dan kepala daerah tindak tegas oknum yang berkerumun ayo penegak hukum oknum baju putih yan</t>
+          <t>nama ahok terseret saat tim tp beberkan habib rizieq belasan kali hampir dibunuh ada apa eh jahap banget sih</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'minta', 'aparat', 'hukum', 'dan', 'kepala', 'daerah', 'tindak', 'tegas', 'oknum', 'yang', 'berkerumun', 'ayo', 'penegak', 'hukum', 'oknum', 'baju', 'putih', 'yan']</t>
+          <t>['nama', 'ahok', 'terseret', 'saat', 'tim', 'tp', 'beberkan', 'habib', 'rizieq', 'belasan', 'kali', 'hampir', 'dibunuh', 'ada', 'apa', 'eh', 'jahap', 'banget', 'sih']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['nama', 'ahok', 'terseret', 'saat', 'tim', 'tetapi', 'beberkan', 'habib', 'rizieq', 'belasan', 'kali', 'hampir', 'dibunuh', 'ada', 'apa', 'eh', 'jahap', 'banget', 'sih']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['jokowi', 'aparat', 'hukum', 'kepala', 'daerah', 'tindak', 'oknum', 'berkerumun', 'ayo', 'penegak', 'hukum', 'oknum', 'baju', 'putih', 'yan']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['jokowi', 'aparat', 'hukum', 'kepala', 'daerah', 'tindak', 'oknum', 'kerumun', 'ayo', 'tegak', 'hukum', 'oknum', 'baju', 'putih', 'yan']</t>
+          <t>['nama', 'ahok', 'terseret', 'tim', 'beberkan', 'habib', 'rizieq', 'belasan', 'kali', 'dibunuh', 'eh', 'jahap', 'banget']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['nama', 'ahok', 'seret', 'tim', 'kan', 'habib', 'rizieq', 'bas', 'kali', 'bunuh', 'eh', 'jahap', 'banget']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16149</v>
+        <v>26916</v>
       </c>
       <c r="C5" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>datang jauhjauh hanya untuk jalan sendirian di pematang sawah ditengah hujan kesannya misteri dan mistis bak mobil esemka</t>
+          <t>jepang tidak punya pancasila tapi pemimpinnya punya rasa malu bagaimana dengan negeri wakanda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['datang', 'jauhjauh', 'hanya', 'untuk', 'jalan', 'sendirian', 'di', 'pematang', 'sawah', 'ditengah', 'hujan', 'kesannya', 'misteri', 'dan', 'mistis', 'bak', 'mobil', 'esemka']</t>
+          <t>['jepang', 'tidak', 'punya', 'pancasila', 'tapi', 'pemimpinnya', 'punya', 'rasa', 'malu', 'bagaimana', 'dengan', 'negeri', 'wakanda']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['jepang', 'tidak', 'punya', 'pancasila', 'tapi', 'pemimpinnya', 'punya', 'rasa', 'malu', 'bagaimana', 'dengan', 'negeri', 'wakanda']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['jauhjauh', 'jalan', 'pematang', 'sawah', 'ditengah', 'hujan', 'kesannya', 'misteri', 'mistis', 'bak', 'mobil', 'esemka']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['jauhjauh', 'jalan', 'pematang', 'sawah', 'tengah', 'hujan', 'kesan', 'misteri', 'mistis', 'bak', 'mobil', 'esemka']</t>
+          <t>['jepang', 'pancasila', 'pemimpinnya', 'malu', 'negeri', 'wakanda']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['jepang', 'pancasila', 'pimpin', 'malu', 'negeri', 'wakanda']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16150</v>
+        <v>26917</v>
       </c>
       <c r="C6" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kaget kantor gubernur jateng banjir ganjar minta audit sumber air kayaknya sih dari langit coba tanya sama gato</t>
+          <t>jarangnya moeldoko tampil dinilai demi kurangi desakan mundur dari ksp tampil salah gak tampil salah blunder</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['kaget', 'kantor', 'gubernur', 'jateng', 'banjir', 'ganjar', 'minta', 'audit', 'sumber', 'air', 'kayaknya', 'sih', 'dari', 'langit', 'coba', 'tanya', 'sama', 'gato']</t>
+          <t>['jarangnya', 'moeldoko', 'tampil', 'dinilai', 'demi', 'kurangi', 'desakan', 'mundur', 'dari', 'ksp', 'tampil', 'salah', 'gak', 'tampil', 'salah', 'blunder']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['jarangnya', 'moeldoko', 'tampil', 'dinilai', 'demi', 'kurangi', 'desakan', 'mundur', 'dari', 'ksp', 'tampil', 'salah', 'tidak', 'tampil', 'salah', 'blunder']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['kaget', 'kantor', 'gubernur', 'jateng', 'banjir', 'ganjar', 'audit', 'sumber', 'air', 'kayaknya', 'langit', 'coba', 'gato']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['kaget', 'kantor', 'gubernur', 'jateng', 'banjir', 'ganjar', 'audit', 'sumber', 'air', 'kayak', 'langit', 'coba', 'gato']</t>
+          <t>['jarangnya', 'moeldoko', 'tampil', 'dinilai', 'kurangi', 'desakan', 'mundur', 'ksp', 'tampil', 'salah', 'tampil', 'salah', 'blunder']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['jarang', 'moeldoko', 'tampil', 'nilai', 'kurang', 'desa', 'mundur', 'ksp', 'tampil', 'salah', 'tampil', 'salah', 'blunder']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16151</v>
+        <v>26918</v>
       </c>
       <c r="C7" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>aamiin ya rabb</t>
+          <t>siapa yang instruksikan bulog impor beras juta ton yang jelas bukan dari istana istana benci impor trus dari</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['aamiin', 'ya', 'rabb']</t>
+          <t>['siapa', 'yang', 'instruksikan', 'bulog', 'impor', 'beras', 'juta', 'ton', 'yang', 'jelas', 'bukan', 'dari', 'istana', 'istana', 'benci', 'impor', 'trus', 'dari']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['siapa', 'yang', 'instruksikan', 'bulog', 'impor', 'beras', 'juta', 'ton', 'yang', 'jelas', 'bukan', 'dari', 'istana', 'istana', 'benci', 'impor', 'terus', 'dari']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['aamiin', 'rabb']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['aamiin', 'rabb']</t>
+          <t>['instruksikan', 'bulog', 'impor', 'beras', 'juta', 'ton', 'istana', 'istana', 'benci', 'impor']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['instruksi', 'bulog', 'impor', 'beras', 'juta', 'ton', 'istana', 'istana', 'benci', 'impor']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16152</v>
+        <v>26919</v>
       </c>
       <c r="C8" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>sehat semua kan</t>
+          <t>kantor luhut sudah putuskan ri akan impor garam jumlahnya masih dihitung istana sudah putuskan benci produk asin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['sehat', 'semua', 'kan']</t>
+          <t>['kantor', 'luhut', 'sudah', 'putuskan', 'ri', 'akan', 'impor', 'garam', 'jumlahnya', 'masih', 'dihitung', 'istana', 'sudah', 'putuskan', 'benci', 'produk', 'asin']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kantor', 'luhut', 'sudah', 'putuskan', 'ri', 'akan', 'impor', 'garam', 'jumlahnya', 'masih', 'dihitung', 'istana', 'sudah', 'putuskan', 'benci', 'produk', 'asin']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['sehat']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['sehat']</t>
+          <t>['kantor', 'luhut', 'putuskan', 'ri', 'impor', 'garam', 'dihitung', 'istana', 'putuskan', 'benci', 'produk', 'asin']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['kantor', 'luhut', 'putus', 'ri', 'impor', 'garam', 'hitung', 'istana', 'putus', 'benci', 'produk', 'asin']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16153</v>
+        <v>26920</v>
       </c>
       <c r="C9" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ho oh keiknya</t>
+          <t>menjaminkan diri untuk pembebasan hrs anda orang baik bung bikin cemburu saja barakallah fiikum</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['ho', 'oh', 'keiknya']</t>
+          <t>['menjaminkan', 'diri', 'untuk', 'pembebasan', 'hrs', 'anda', 'orang', 'baik', 'bung', 'bikin', 'cemburu', 'saja', 'barakallah', 'fiikum']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['menjaminkan', 'diri', 'untuk', 'pembebasan', 'harus', 'anda', 'orang', 'baik', 'bung', 'bikin', 'cemburu', 'saja', 'barakallah', 'fiikum']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['ho', 'oh', 'keiknya']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['ho', 'oh', 'keiknya']</t>
+          <t>['menjaminkan', 'pembebasan', 'orang', 'cemburu', 'barakallah', 'fiikum']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['jamin', 'bebas', 'orang', 'cemburu', 'barakallah', 'fiikum']</t>
         </is>
       </c>
     </row>
@@ -763,30 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16154</v>
+        <v>26921</v>
       </c>
       <c r="C10" t="n">
-        <v>203</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>319</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>buzzerrp tuduh anies korupsi lahan rumah dp rupiah usut punya usut yang terlibat warga kolam sendiri trus biji</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['buzzerrp', 'tuduh', 'anies', 'korupsi', 'lahan', 'rumah', 'dp', 'rupiah', 'usut', 'punya', 'usut', 'yang', 'terlibat', 'warga', 'kolam', 'sendiri', 'trus', 'biji']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['buzzerrp', 'tuduh', 'anies', 'korupsi', 'lahan', 'rumah', 'uang, muka', 'rupiah', 'usut', 'punya', 'usut', 'yang', 'terlibat', 'warga', 'kolam', 'sendiri', 'terus', 'biji']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['buzzerrp', 'tuduh', 'anies', 'korupsi', 'lahan', 'rumah', 'uang, muka', 'rupiah', 'usut', 'usut', 'terlibat', 'warga', 'kolam', 'biji']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['buzzerrp', 'tuduh', 'anies', 'korupsi', 'lahan', 'rumah', 'uang muka', 'rupiah', 'usut', 'usut', 'libat', 'warga', 'kolam', 'biji']</t>
         </is>
       </c>
     </row>
@@ -795,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16155</v>
+        <v>26922</v>
       </c>
       <c r="C11" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>masa sih</t>
+          <t>airlangga bertemu prabowo bahas dukungan untuk jokowi duaduanya masih jadi menteri trus jokowi mau didukung kem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['masa', 'sih']</t>
+          <t>['airlangga', 'bertemu', 'prabowo', 'bahas', 'dukungan', 'untuk', 'jokowi', 'duaduanya', 'masih', 'jadi', 'menteri', 'trus', 'jokowi', 'mau', 'didukung', 'kem']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['airlangga', 'bertemu', 'prabowo', 'bahas', 'dukungan', 'untuk', 'jokowi', 'dua, duanya', 'masih', 'jadi', 'menteri', 'terus', 'jokowi', 'mau', 'didukung', 'kem']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['airlangga', 'bertemu', 'prabowo', 'bahas', 'dukungan', 'jokowi', 'dua, duanya', 'menteri', 'jokowi', 'didukung', 'kem']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['airlangga', 'temu', 'prabowo', 'bahas', 'dukung', 'jokowi', 'dua dua', 'menteri', 'jokowi', 'dukung', 'kem']</t>
         </is>
       </c>
     </row>
@@ -831,34 +890,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16156</v>
+        <v>26923</v>
       </c>
       <c r="C12" t="n">
-        <v>203</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>banjir jakarta silahkan kritisi gubernurnya kalau banjir luar jakarta kalian kan cari makan kritisi jakarta saja</t>
-        </is>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['banjir', 'jakarta', 'silahkan', 'kritisi', 'gubernurnya', 'kalau', 'banjir', 'luar', 'jakarta', 'kalian', 'kan', 'cari', 'makan', 'kritisi', 'jakarta', 'saja']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['banjir', 'jakarta', 'silahkan', 'kritisi', 'gubernurnya', 'banjir', 'jakarta', 'cari', 'makan', 'kritisi', 'jakarta']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['banjir', 'jakarta', 'silah', 'kritisi', 'gubernur', 'banjir', 'jakarta', 'cari', 'makan', 'kritisi', 'jakarta']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -867,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16157</v>
+        <v>26924</v>
       </c>
       <c r="C13" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>silakan follow yang udah follow retweet yah contoh promo akun sendiri</t>
+          <t>lha jadi ingat pak timbul</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['silakan', 'follow', 'yang', 'udah', 'follow', 'retweet', 'yah', 'contoh', 'promo', 'akun', 'sendiri']</t>
+          <t>['lha', 'jadi', 'ingat', 'pak', 'timbul']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['lah', 'jadi', 'ingat', 'pak', 'timbul']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['silakan', 'follow', 'udah', 'follow', 'retweet', 'contoh', 'promo', 'akun']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['sila', 'follow', 'udah', 'follow', 'retweet', 'contoh', 'promo', 'akun']</t>
+          <t>['timbul']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['timbul']</t>
         </is>
       </c>
     </row>
@@ -903,34 +968,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16158</v>
+        <v>26925</v>
       </c>
       <c r="C14" t="n">
-        <v>203</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>orang pinter tak perlu buzzer tapi buzzerbuzzer itu akan menghajar pak anies buzzerbuzzer itu urusan kita tun</t>
-        </is>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['orang', 'pinter', 'tak', 'perlu', 'buzzer', 'tapi', 'buzzerbuzzer', 'itu', 'akan', 'menghajar', 'pak', 'anies', 'buzzerbuzzer', 'itu', 'urusan', 'kita', 'tun']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['orang', 'pinter', 'buzzer', 'buzzerbuzzer', 'menghajar', 'anies', 'buzzerbuzzer', 'urusan', 'tun']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['orang', 'pinter', 'buzzer', 'buzzerbuzzer', 'hajar', 'anies', 'buzzerbuzzer', 'urus', 'tun']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -939,34 +1005,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16159</v>
+        <v>26926</v>
       </c>
       <c r="C15" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ayo masuk kandang lagi banjir jakarta sudah surut tetap pasang mata dan telinga baik kalau banjir lagi segera </t>
+          <t>rt kalo gerimishujan jangan berteduh dibawah pohon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ayo', 'masuk', 'kandang', 'lagi', 'banjir', 'jakarta', 'sudah', 'surut', 'tetap', 'pasang', 'mata', 'dan', 'telinga', 'baik', 'kalau', 'banjir', 'lagi', 'segera']</t>
+          <t>['rt', 'kalo', 'gerimishujan', 'jangan', 'berteduh', 'dibawah', 'pohon']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'kalau', 'gerimishujan', 'jangan', 'berteduh', 'di, bawah', 'pohon']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['ayo', 'masuk', 'kandang', 'banjir', 'jakarta', 'surut', 'pasang', 'mata', 'telinga', 'banjir']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['ayo', 'masuk', 'kandang', 'banjir', 'jakarta', 'surut', 'pasang', 'mata', 'telinga', 'banjir']</t>
+          <t>['gerimishujan', 'berteduh', 'di, bawah', 'pohon']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['gerimishujan', 'teduh', 'di bawah', 'pohon']</t>
         </is>
       </c>
     </row>
@@ -975,34 +1046,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16160</v>
+        <v>26927</v>
       </c>
       <c r="C16" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt ya allah limpahkanlah sholawat kepada junjungan kami nabi muhammad dan sibukkanlah orang zhalim dengan orang zhalim lain</t>
+          <t>manajemen pertamina bingung cari uang biaya hidup andalkan utang berita hoax di pertamina itu ada ahox bukan ho</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'ya', 'allah', 'limpahkanlah', 'sholawat', 'kepada', 'junjungan', 'kami', 'nabi', 'muhammad', 'dan', 'sibukkanlah', 'orang', 'zhalim', 'dengan', 'orang', 'zhalim', 'lain']</t>
+          <t>['manajemen', 'pertamina', 'bingung', 'cari', 'uang', 'biaya', 'hidup', 'andalkan', 'utang', 'berita', 'hoax', 'di', 'pertamina', 'itu', 'ada', 'ahox', 'bukan', 'ho']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['manajemen', 'pertamina', 'bingung', 'cari', 'uang', 'biaya', 'hidup', 'andalkan', 'utang', 'berita', 'hoaks', 'di', 'pertamina', 'itu', 'ada', 'ahok', 'bukan', 'oh']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['allah', 'limpahkanlah', 'sholawat', 'junjungan', 'nabi', 'muhammad', 'sibukkanlah', 'orang', 'zhalim', 'orang', 'zhalim']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['allah', 'limpah', 'sholawat', 'junjung', 'nabi', 'muhammad', 'sibuk', 'orang', 'zhalim', 'orang', 'zhalim']</t>
+          <t>['manajemen', 'pertamina', 'bingung', 'cari', 'uang', 'biaya', 'hidup', 'andalkan', 'utang', 'berita', 'hoaks', 'pertamina', 'ahok', 'oh']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['manajemen', 'pertamina', 'bingung', 'cari', 'uang', 'biaya', 'hidup', 'andal', 'utang', 'berita', 'hoaks', 'pertamina', 'ahok', 'oh']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1087,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16161</v>
+        <v>26928</v>
       </c>
       <c r="C17" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> yah menjilat menggonggong melapor</t>
+          <t>kalau ada yang ngidam periode apa kalian mau kabulkan sembrono gak solutip kok ngidam anehaneh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['yah', 'menjilat', 'menggonggong', 'melapor']</t>
+          <t>['kalau', 'ada', 'yang', 'ngidam', 'periode', 'apa', 'kalian', 'mau', 'kabulkan', 'sembrono', 'gak', 'solutip', 'kok', 'ngidam', 'anehaneh']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kalau', 'ada', 'yang', 'mengidam', 'periode', 'apa', 'kalian', 'mau', 'kabulkan', 'sembrono', 'tidak', 'solutip', 'kok', 'mengidam', 'anehaneh']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['menjilat', 'menggonggong', 'melapor']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['jilat', 'gonggong', 'lapor']</t>
+          <t>['mengidam', 'periode', 'kabulkan', 'sembrono', 'solutip', 'mengidam', 'anehaneh']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['idam', 'periode', 'kabul', 'sembrono', 'solutip', 'idam', 'anehaneh']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1128,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16162</v>
+        <v>26929</v>
       </c>
       <c r="C18" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>pilu siswa pamit putus sekolah ke guru karena tak kuat lagi beli kuota internet kalau mendikbud bisa kerja yang</t>
+          <t>komnas ham periksa ribu video polisi tak terindikasi hendak membunuh laskar fpi ada ribu video dan sud</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['pilu', 'siswa', 'pamit', 'putus', 'sekolah', 'ke', 'guru', 'karena', 'tak', 'kuat', 'lagi', 'beli', 'kuota', 'internet', 'kalau', 'mendikbud', 'bisa', 'kerja', 'yang']</t>
+          <t>['komnas', 'ham', 'periksa', 'ribu', 'video', 'polisi', 'tak', 'terindikasi', 'hendak', 'membunuh', 'laskar', 'fpi', 'ada', 'ribu', 'video', 'dan', 'sud']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['komisi, nasional', 'ham', 'periksa', 'ribu', 'video', 'polisi', 'tak', 'terindikasi', 'hendak', 'membunuh', 'laskar', 'front, pembela, islam', 'ada', 'ribu', 'video', 'dan', 'sudah']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['pilu', 'siswa', 'pamit', 'putus', 'sekolah', 'guru', 'kuat', 'beli', 'kuota', 'internet', 'mendikbud', 'kerja']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['pilu', 'siswa', 'pamit', 'putus', 'sekolah', 'guru', 'kuat', 'beli', 'kuota', 'internet', 'mendikbud', 'kerja']</t>
+          <t>['komisi, nasional', 'ham', 'periksa', 'ribu', 'video', 'polisi', 'terindikasi', 'membunuh', 'laskar', 'front, pembela, islam', 'ribu', 'video']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['komisi nasional', 'ham', 'periksa', 'ribu', 'video', 'polisi', 'indikasi', 'bunuh', 'laskar', 'front bela islam', 'ribu', 'video']</t>
         </is>
       </c>
     </row>
@@ -1083,30 +1169,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16163</v>
+        <v>26930</v>
       </c>
       <c r="C19" t="n">
-        <v>203</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>319</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>isyarat penting semua orang harus tau isyarattanda minta tolong ini buka telapak tangan lipat jempol dan tutup</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['isyarat', 'penting', 'semua', 'orang', 'harus', 'tau', 'isyarattanda', 'minta', 'tolong', 'ini', 'buka', 'telapak', 'tangan', 'lipat', 'jempol', 'dan', 'tutup']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['isyarat', 'penting', 'semua', 'orang', 'harus', 'tau', 'isyarattanda', 'meminta', 'tolong', 'ini', 'buka', 'telapak', 'tangan', 'lipat', 'jempol', 'dan', 'tutup']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['isyarat', 'orang', 'isyarattanda', 'tolong', 'buka', 'telapak', 'tangan', 'lipat', 'jempol', 'tutup']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['isyarat', 'orang', 'isyarattanda', 'tolong', 'buka', 'telapak', 'tangan', 'lipat', 'jempol', 'tutup']</t>
         </is>
       </c>
     </row>
@@ -1115,34 +1210,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16164</v>
+        <v>26931</v>
       </c>
       <c r="C20" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>mantap salam buat mbah nya ya bro bilangin salam sayang dari kanseulir gituuuu</t>
+          <t>minggir kelen pinokio mau lewat</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mantap', 'salam', 'buat', 'mbah', 'nya', 'ya', 'bro', 'bilangin', 'salam', 'sayang', 'dari', 'kanseulir', 'gituuuu']</t>
+          <t>['minggir', 'kelen', 'pinokio', 'mau', 'lewat']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['minggir', 'kalian', 'pinokio', 'mau', 'lewat']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['mantap', 'salam', 'mbah', 'bro', 'bilangin', 'salam', 'sayang', 'kanseulir', 'gituuuu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['mantap', 'salam', 'mbah', 'bro', 'bilangin', 'salam', 'sayang', 'kanseulir', 'gituuuu']</t>
+          <t>['minggir', 'pinokio']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['minggir', 'pinokio']</t>
         </is>
       </c>
     </row>
@@ -1151,34 +1251,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16165</v>
+        <v>26932</v>
       </c>
       <c r="C21" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>nagke lande bukan</t>
+          <t>pengen sablon gini di kaos biar islamophobia dan yang anti arab kepanasan ada yang bisa bantu transla</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['nagke', 'lande', 'bukan']</t>
+          <t>['pengen', 'sablon', 'gini', 'di', 'kaos', 'biar', 'islamophobia', 'dan', 'yang', 'anti', 'arab', 'kepanasan', 'ada', 'yang', 'bisa', 'bantu', 'transla']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ingin', 'sablon', 'begini', 'di', 'kaos', 'biar', 'islamophobia', 'dan', 'yang', 'anti', 'arab', 'kepanasan', 'ada', 'yang', 'bisa', 'bantu', 'transla']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['nagke', 'lande']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['nagke', 'lande']</t>
+          <t>['sablon', 'kaos', 'islamophobia', 'anti', 'arab', 'kepanasan', 'bantu', 'transla']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['sablon', 'kaos', 'islamophobia', 'anti', 'arab', 'panas', 'bantu', 'transla']</t>
         </is>
       </c>
     </row>
@@ -1187,30 +1292,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16166</v>
+        <v>26933</v>
       </c>
       <c r="C22" t="n">
-        <v>203</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>319</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>kok ada ya orang yang tuang air panas dulu kemudian baru kopi diatasnya ajaran sesat macam apa itu</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kok', 'ada', 'ya', 'orang', 'yang', 'tuang', 'air', 'panas', 'dulu', 'kemudian', 'baru', 'kopi', 'diatasnya', 'ajaran', 'sesat', 'macam', 'apa', 'itu']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kok', 'ada', 'ya', 'orang', 'yang', 'tuang', 'air', 'panas', 'dulu', 'kemudian', 'baru', 'kopi', 'diatasnya', 'ajaran', 'sesat', 'macam', 'apa', 'itu']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['orang', 'tuang', 'air', 'panas', 'kopi', 'diatasnya', 'ajaran', 'sesat']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['orang', 'tuang', 'air', 'panas', 'kopi', 'atas', 'ajar', 'sesat']</t>
         </is>
       </c>
     </row>
@@ -1219,30 +1333,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16167</v>
+        <v>26934</v>
       </c>
       <c r="C23" t="n">
-        <v>203</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>319</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>pemerintah canangkan impor beras ditengah panen raya petani itu menyakitkan saya kaget pemerintah itu siapa</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pemerintah', 'canangkan', 'impor', 'beras', 'ditengah', 'panen', 'raya', 'petani', 'itu', 'menyakitkan', 'saya', 'kaget', 'pemerintah', 'itu', 'siapa']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['pemerintah', 'canangkan', 'impor', 'beras', 'ditengah', 'panen', 'raya', 'petani', 'itu', 'menyakitkan', 'saya', 'kaget', 'pemerintah', 'itu', 'siapa']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pemerintah', 'canangkan', 'impor', 'beras', 'ditengah', 'panen', 'raya', 'petani', 'menyakitkan', 'kaget', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['perintah', 'canang', 'impor', 'beras', 'tengah', 'panen', 'raya', 'tani', 'sakit', 'kaget', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -1251,34 +1374,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16168</v>
+        <v>26935</v>
       </c>
       <c r="C24" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>nih mungkin donat</t>
+          <t>bro itu sudah ngirim lintas pulau kalau cuma jakarta bisa di kondisikan itu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['nih', 'mungkin', 'donat']</t>
+          <t>['bro', 'itu', 'sudah', 'ngirim', 'lintas', 'pulau', 'kalau', 'cuma', 'jakarta', 'bisa', 'di', 'kondisikan', 'itu']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bro', 'itu', 'sudah', 'mengirim', 'lintas', 'pulau', 'kalau', 'cuma', 'jakarta', 'bisa', 'di', 'kondisikan', 'itu']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['donat']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['donat']</t>
+          <t>['bro', 'mengirim', 'lintas', 'pulau', 'jakarta', 'kondisikan']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['bro', 'kirim', 'lintas', 'pulau', 'jakarta', 'kondisi']</t>
         </is>
       </c>
     </row>
@@ -1287,30 +1415,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16169</v>
+        <v>26936</v>
       </c>
       <c r="C25" t="n">
-        <v>203</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>319</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>bro tolong kondisikan</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bro', 'tolong', 'kondisikan']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bro', 'tolong', 'kondisikan']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bro', 'tolong', 'kondisikan']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['bro', 'tolong', 'kondisi']</t>
         </is>
       </c>
     </row>
@@ -1319,34 +1456,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16170</v>
+        <v>26937</v>
       </c>
       <c r="C26" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>cadas bro</t>
+          <t>kirim satu lumbukan biar rame</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['cadas', 'bro']</t>
+          <t>['kirim', 'satu', 'lumbukan', 'biar', 'rame']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kirim', 'satu', 'lumbukan', 'biar', 'ramai']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['cadas', 'bro']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['cadas', 'bro']</t>
+          <t>['kirim', 'lumbukan', 'ramai']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['kirim', 'lumbu', 'ramai']</t>
         </is>
       </c>
     </row>
@@ -1355,34 +1497,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16171</v>
+        <v>26938</v>
       </c>
       <c r="C27" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> malu meong</t>
+          <t>peneliti asing soal klb baru ini ada presiden tak tahu pergerakan bawahan mungkin gak mau urusi pergerakan orang</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['malu', 'meong']</t>
+          <t>['peneliti', 'asing', 'soal', 'klb', 'baru', 'ini', 'ada', 'presiden', 'tak', 'tahu', 'pergerakan', 'bawahan', 'mungkin', 'gak', 'mau', 'urusi', 'pergerakan', 'orang']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['peneliti', 'asing', 'soal', 'klb', 'baru', 'ini', 'ada', 'presiden', 'tak', 'tahu', 'pergerakan', 'bawahan', 'mungkin', 'tidak', 'mau', 'urusi', 'pergerakan', 'orang']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['malu', 'meong']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['malu', 'meong']</t>
+          <t>['peneliti', 'asing', 'klb', 'presiden', 'pergerakan', 'bawahan', 'urusi', 'pergerakan', 'orang']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['teliti', 'asing', 'klb', 'presiden', 'gera', 'bawah', 'urus', 'gera', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1391,30 +1538,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16172</v>
+        <v>26939</v>
       </c>
       <c r="C28" t="n">
-        <v>203</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>319</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>kelen wajib follow nih akun rumah militan</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kelen', 'wajib', 'follow', 'nih', 'akun', 'rumah', 'militan']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kalian', 'wajib', 'follow', 'nih', 'akun', 'rumah', 'militan']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wajib', 'follow', 'akun', 'rumah', 'militan']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['wajib', 'follow', 'akun', 'rumah', 'militan']</t>
         </is>
       </c>
     </row>
@@ -1423,34 +1579,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16173</v>
+        <v>26940</v>
       </c>
       <c r="C29" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>uchuch</t>
+          <t>rumah arrayyan waduh pelan bro maen langsung hajar aja</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['uchuch']</t>
+          <t>['rumah', 'arrayyan', 'waduh', 'pelan', 'bro', 'maen', 'langsung', 'hajar', 'aja']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rumah', 'arrayyan', 'waduh', 'pelan', 'bro', 'main', 'langsung', 'hajar', 'saja']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['uchuch']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['uchuch']</t>
+          <t>['rumah', 'arrayyan', 'pelan', 'bro', 'main', 'langsung', 'hajar']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['rumah', 'arrayyan', 'pelan', 'bro', 'main', 'langsung', 'hajar']</t>
         </is>
       </c>
     </row>
@@ -1459,34 +1620,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16174</v>
+        <v>26941</v>
       </c>
       <c r="C30" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>apa ga melanggar sdnbhd bro</t>
+          <t>smeleheuwkeun deui bray sambil ngupi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['apa', 'ga', 'melanggar', 'sdnbhd', 'bro']</t>
+          <t>['smeleheuwkeun', 'deui', 'bray', 'sambil', 'ngupi']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['smeleheuwkeun', 'lagi', 'bro', 'sambil', 'ngupi']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['melanggar', 'sdnbhd', 'bro']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['langgar', 'sdnbhd', 'bro']</t>
+          <t>['smeleheuwkeun', 'bro', 'ngupi']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['smeleheuwkeun', 'bro', 'ngupi']</t>
         </is>
       </c>
     </row>
@@ -1495,34 +1661,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16175</v>
+        <v>26942</v>
       </c>
       <c r="C31" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ditampung dulu ya bro</t>
+          <t>ciecie manusia mubazir keluar</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['ditampung', 'dulu', 'ya', 'bro']</t>
+          <t>['ciecie', 'manusia', 'mubazir', 'keluar']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['ciecie', 'manusia', 'mubazir', 'keluar']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['ditampung', 'bro']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['tampung', 'bro']</t>
+          <t>['ciecie', 'manusia', 'mubazir']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['ciecie', 'manusia', 'mubazir']</t>
         </is>
       </c>
     </row>
@@ -1531,34 +1702,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16176</v>
+        <v>26943</v>
       </c>
       <c r="C32" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>chchaaaunk kasih tau ga yah yang lain ava nya keren pengen keik orang</t>
+          <t>ya allah sibukkanlah orang zhalim dengan orang zhalim lainnya selamatkanlah kami dari kejahatan mereka</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['chchaaaunk', 'kasih', 'tau', 'ga', 'yah', 'yang', 'lain', 'ava', 'nya', 'keren', 'pengen', 'keik', 'orang']</t>
+          <t>['ya', 'allah', 'sibukkanlah', 'orang', 'zhalim', 'dengan', 'orang', 'zhalim', 'lainnya', 'selamatkanlah', 'kami', 'dari', 'kejahatan', 'mereka']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ya', 'allah', 'sibukkanlah', 'orang', 'zalim', 'dengan', 'orang', 'zalim', 'lainnya', 'selamatkanlah', 'kami', 'dari', 'kejahatan', 'mereka']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['chchaaaunk', 'kasih', 'ava', 'keren', 'pengen', 'keik', 'orang']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['chchaaaunk', 'kasih', 'ava', 'keren', 'ken', 'keik', 'orang']</t>
+          <t>['allah', 'sibukkanlah', 'orang', 'zalim', 'orang', 'zalim', 'selamatkanlah', 'kejahatan']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['allah', 'sibuk', 'orang', 'zalim', 'orang', 'zalim', 'selamat', 'jahat']</t>
         </is>
       </c>
     </row>
@@ -1567,34 +1743,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16177</v>
+        <v>26944</v>
       </c>
       <c r="C33" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>chchaaaunk yang manis donk kanseulir kan ga serem</t>
+          <t>bray kalau kelen sudah berisik bikin ngeri sedap smeleheuwkeun</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['chchaaaunk', 'yang', 'manis', 'donk', 'kanseulir', 'kan', 'ga', 'serem']</t>
+          <t>['bray', 'kalau', 'kelen', 'sudah', 'berisik', 'bikin', 'ngeri', 'sedap', 'smeleheuwkeun']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['bro', 'kalau', 'kalian', 'sudah', 'berisik', 'bikin', 'ngeri', 'sedap', 'smeleheuwkeun']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['chchaaaunk', 'manis', 'donk', 'kanseulir', 'serem']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['chchaaaunk', 'manis', 'donk', 'kanseulir', 'rem']</t>
+          <t>['bro', 'berisik', 'ngeri', 'sedap', 'smeleheuwkeun']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['bro', 'berisik', 'ngeri', 'sedap', 'smeleheuwkeun']</t>
         </is>
       </c>
     </row>
@@ -1603,34 +1784,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16178</v>
+        <v>26945</v>
       </c>
       <c r="C34" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>bray ada yang mau ngasih ava buat kanseulir mau ganti ava ah</t>
+          <t>smeleheuwkeun bray</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['bray', 'ada', 'yang', 'mau', 'ngasih', 'ava', 'buat', 'kanseulir', 'mau', 'ganti', 'ava', 'ah']</t>
+          <t>['smeleheuwkeun', 'bray']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['smeleheuwkeun', 'bro']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['bray', 'ngasih', 'ava', 'kanseulir', 'ganti', 'ava', 'ah']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['bray', 'ngasih', 'ava', 'kanseulir', 'ganti', 'ava', 'ah']</t>
+          <t>['smeleheuwkeun', 'bro']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['smeleheuwkeun', 'bro']</t>
         </is>
       </c>
     </row>
@@ -1639,34 +1825,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16179</v>
+        <v>26946</v>
       </c>
       <c r="C35" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">hidari perdebatan tak berguna solusi banjir jakarta itu sederhana saja jadikan anies presiden solusi seperti </t>
+          <t>fadli zon minta hrs dibebaskan jelang ramadhan benar jangan semena saat berkuasa ingat kekuasaan itu dipergi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['hidari', 'perdebatan', 'tak', 'berguna', 'solusi', 'banjir', 'jakarta', 'itu', 'sederhana', 'saja', 'jadikan', 'anies', 'presiden', 'solusi', 'seperti']</t>
+          <t>['fadli', 'zon', 'minta', 'hrs', 'dibebaskan', 'jelang', 'ramadhan', 'benar', 'jangan', 'semena', 'saat', 'berkuasa', 'ingat', 'kekuasaan', 'itu', 'dipergi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['fadli', 'zon', 'meminta', 'harus', 'dibebaskan', 'jelang', 'ramadan', 'benar', 'jangan', 'semena', 'saat', 'berkuasa', 'ingat', 'kekuasaan', 'itu', 'dipergi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['hidari', 'perdebatan', 'berguna', 'solusi', 'banjir', 'jakarta', 'sederhana', 'jadikan', 'anies', 'presiden', 'solusi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['hidari', 'debat', 'guna', 'solusi', 'banjir', 'jakarta', 'sederhana', 'jadi', 'anies', 'presiden', 'solusi']</t>
+          <t>['fadli', 'zon', 'dibebaskan', 'jelang', 'ramadan', 'semena', 'berkuasa', 'kekuasaan', 'dipergi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['fadli', 'zon', 'bebas', 'jelang', 'ramadan', 'semena', 'kuasa', 'kuasa', 'pergi']</t>
         </is>
       </c>
     </row>
@@ -1675,34 +1866,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16180</v>
+        <v>26947</v>
       </c>
       <c r="C36" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jokowi marah dengan batalnya investor asing ke indonesia katanya kalau dibuat omnibus law investor akan berdatangan </t>
+          <t>rt thanks bro salute</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'marah', 'dengan', 'batalnya', 'investor', 'asing', 'ke', 'indonesia', 'katanya', 'kalau', 'dibuat', 'omnibus', 'law', 'investor', 'akan', 'berdatangan']</t>
+          <t>['rt', 'thanks', 'bro', 'salute']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'terima, kasih', 'bro', 'salut']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['jokowi', 'marah', 'batalnya', 'investor', 'asing', 'indonesia', 'omnibus', 'law', 'investor']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['jokowi', 'marah', 'batal', 'investor', 'asing', 'indonesia', 'omnibus', 'law', 'investor']</t>
+          <t>['terima, kasih', 'bro', 'salut']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'bro', 'salut']</t>
         </is>
       </c>
     </row>
@@ -1711,34 +1907,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16181</v>
+        <v>26948</v>
       </c>
       <c r="C37" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>sri mulyani bawa nama tuhan rocky gerung menyerah dan mundur saja bu kritikan pedas pakai cabe berapa tuch</t>
+          <t>rt twitter please do your magic bantu dede aisyah agar sehat kembali aku tau akun aku kecil tapi aku yakin banyak sekal</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['sri', 'mulyani', 'bawa', 'nama', 'tuhan', 'rocky', 'gerung', 'menyerah', 'dan', 'mundur', 'saja', 'bu', 'kritikan', 'pedas', 'pakai', 'cabe', 'berapa', 'tuch']</t>
+          <t>['rt', 'twitter', 'please', 'do', 'your', 'magic', 'bantu', 'dede', 'aisyah', 'agar', 'sehat', 'kembali', 'aku', 'tau', 'akun', 'aku', 'kecil', 'tapi', 'aku', 'yakin', 'banyak', 'sekal']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'twitter', 'please', 'do', 'your', 'magic', 'bantu', 'adik', 'aisya', 'agar', 'sehat', 'kembali', 'aku', 'tau', 'akun', 'aku', 'kecil', 'tapi', 'aku', 'yakin', 'banyak', 'sekal']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['sri', 'mulyani', 'bawa', 'nama', 'tuhan', 'rocky', 'gerung', 'menyerah', 'mundur', 'bu', 'kritikan', 'pedas', 'pakai', 'cabe', 'tuch']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['sri', 'mulyani', 'bawa', 'nama', 'tuhan', 'rocky', 'gerung', 'serah', 'mundur', 'bu', 'kritik', 'pedas', 'pakai', 'cabe', 'tuch']</t>
+          <t>['twitter', 'please', 'do', 'your', 'magic', 'bantu', 'adik', 'aisya', 'sehat', 'akun', 'sekal']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['twitter', 'please', 'do', 'your', 'magic', 'bantu', 'adik', 'aisya', 'sehat', 'akun', 'sekal']</t>
         </is>
       </c>
     </row>
@@ -1747,34 +1948,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16182</v>
+        <v>26949</v>
       </c>
       <c r="C38" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sudah dilobi jokowi dan luhut tesla malah bangun pabrik mobil listrik di india hanya ada kata untukmu tesla</t>
+          <t>sebelum ada vaksin semua mati karena covid setelah ada vaksin tak semua mati karena covid dan aku kaget</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['sudah', 'dilobi', 'jokowi', 'dan', 'luhut', 'tesla', 'malah', 'bangun', 'pabrik', 'mobil', 'listrik', 'di', 'india', 'hanya', 'ada', 'kata', 'untukmu', 'tesla']</t>
+          <t>['sebelum', 'ada', 'vaksin', 'semua', 'mati', 'karena', 'covid', 'setelah', 'ada', 'vaksin', 'tak', 'semua', 'mati', 'karena', 'covid', 'dan', 'aku', 'kaget']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['sebelum', 'ada', 'vaksin', 'semua', 'mati', 'karena', 'covid', 'setelah', 'ada', 'vaksin', 'tak', 'semua', 'mati', 'karena', 'covid', 'dan', 'aku', 'kaget']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['dilobi', 'jokowi', 'luhut', 'tesla', 'bangun', 'pabrik', 'mobil', 'listrik', 'india', 'untukmu', 'tesla']</t>
+          <t>&lt;FreqDist with 12 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['lobi', 'jokowi', 'luhut', 'tesla', 'bangun', 'pabrik', 'mobil', 'listrik', 'india', 'untuk', 'tesla']</t>
+          <t>['vaksin', 'mati', 'covid', 'vaksin', 'mati', 'covid', 'kaget']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['vaksin', 'mati', 'covid', 'vaksin', 'mati', 'covid', 'kaget']</t>
         </is>
       </c>
     </row>
@@ -1783,34 +1989,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16183</v>
+        <v>26950</v>
       </c>
       <c r="C39" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jaya terus di darat laut dan udara kawan umkm</t>
+          <t>rt menanti jokowi sikapi manuver moeldoko di kisruh demokrat ya jangan semua dikasihkan ke saya pusing saya https</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['jaya', 'terus', 'di', 'darat', 'laut', 'dan', 'udara', 'kawan', 'umkm']</t>
+          <t>['rt', 'menanti', 'jokowi', 'sikapi', 'manuver', 'moeldoko', 'di', 'kisruh', 'demokrat', 'ya', 'jangan', 'semua', 'dikasihkan', 'ke', 'saya', 'pusing', 'saya', 'https']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'menanti', 'jokowi', 'menyikapi', 'manuver', 'moeldoko', 'di', 'kisruh', 'demokrat', 'ya', 'jangan', 'semua', 'dikasihkan', 'ke', 'saya', 'pusing', 'saya', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['jaya', 'darat', 'laut', 'udara', 'kawan', 'umkm']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['jaya', 'darat', 'laut', 'udara', 'kawan', 'umkm']</t>
+          <t>['jokowi', 'menyikapi', 'manuver', 'moeldoko', 'kisruh', 'demokrat', 'dikasihkan', 'pusing', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['jokowi', 'sikap', 'manuver', 'moeldoko', 'kisruh', 'demokrat', 'kasih', 'pusing', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -1819,34 +2030,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16184</v>
+        <v>26951</v>
       </c>
       <c r="C40" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>soal penolak vaksin covid anies baswedan yang mau saja gampang kan gak pakai ruwet gak pakai ribet apalagi</t>
+          <t xml:space="preserve">rt seperangkat alat shalat nih mblo ada set satu set nya senilai rb an buat bapaks juga boleh ikut kokkado untuk </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['soal', 'penolak', 'vaksin', 'covid', 'anies', 'baswedan', 'yang', 'mau', 'saja', 'gampang', 'kan', 'gak', 'pakai', 'ruwet', 'gak', 'pakai', 'ribet', 'apalagi']</t>
+          <t>['rt', 'seperangkat', 'alat', 'shalat', 'nih', 'mblo', 'ada', 'set', 'satu', 'set', 'nya', 'senilai', 'rb', 'an', 'buat', 'bapaks', 'juga', 'boleh', 'ikut', 'kokkado', 'untuk']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'seperangkat', 'alat', 'salat', 'nih', 'jomblo', 'ada', 'set', 'satu', 'set', 'nya', 'senilai', 'ribu', 'an', 'buat', 'bapaks', 'juga', 'boleh', 'ikut', 'kokkado', 'untuk']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['penolak', 'vaksin', 'covid', 'anies', 'baswedan', 'gampang', 'pakai', 'ruwet', 'pakai', 'ribet']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['tolak', 'vaksin', 'covid', 'anies', 'baswedan', 'gampang', 'pakai', 'ruwet', 'pakai', 'ribet']</t>
+          <t>['seperangkat', 'alat', 'salat', 'jomblo', 'set', 'set', 'senilai', 'ribu', 'an', 'bapaks', 'kokkado']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['perangkat', 'alat', 'salat', 'jomblo', 'set', 'set', 'nila', 'ribu', 'an', 'bapaks', 'kokkado']</t>
         </is>
       </c>
     </row>
@@ -1855,34 +2071,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16185</v>
+        <v>26952</v>
       </c>
       <c r="C41" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>dek memang luar biasa dah jam kita tunggu akhirnya keluar juga jiwa kritisnya partai anak muda mema</t>
+          <t>ga usah berharap yang  deh yang ini aja dulu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['dek', 'memang', 'luar', 'biasa', 'dah', 'jam', 'kita', 'tunggu', 'akhirnya', 'keluar', 'juga', 'jiwa', 'kritisnya', 'partai', 'anak', 'muda', 'mema']</t>
+          <t>['ga', 'usah', 'berharap', 'yang', 'deh', 'yang', 'ini', 'aja', 'dulu']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['tidak', 'usah', 'berharap', 'yang', 'deh', 'yang', 'ini', 'saja', 'dulu']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['dek', 'dah', 'jam', 'tunggu', 'jiwa', 'kritisnya', 'partai', 'anak', 'muda', 'mema']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['dek', 'dah', 'jam', 'tunggu', 'jiwa', 'kritis', 'partai', 'anak', 'muda', 'mema']</t>
+          <t>['berharap', 'deh']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['harap', 'deh']</t>
         </is>
       </c>
     </row>
@@ -1891,34 +2112,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16186</v>
+        <v>26953</v>
       </c>
       <c r="C42" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt sampai skrng masih belum ketemu tolong bagi warga demak dan sekitar semarang please tolong bantuin jaran</t>
+          <t>bray ramein</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'sampai', 'skrng', 'masih', 'belum', 'ketemu', 'tolong', 'bagi', 'warga', 'demak', 'dan', 'sekitar', 'semarang', 'please', 'tolong', 'bantuin', 'jaran']</t>
+          <t>['bray', 'ramein']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['bro', 'ramein']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['skrng', 'ketemu', 'tolong', 'warga', 'demak', 'semarang', 'please', 'tolong', 'bantuin', 'jaran']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['skrng', 'ketemu', 'tolong', 'warga', 'demak', 'semarang', 'please', 'tolong', 'bantuin', 'jaran']</t>
+          <t>['bro', 'ramein']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['bro', 'ramein']</t>
         </is>
       </c>
     </row>
@@ -1927,34 +2153,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16187</v>
+        <v>26954</v>
       </c>
       <c r="C43" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>psi mana suaranya nih partai anak muda emang kritis gitu lhoo</t>
+          <t>rt gw kumpulin dimari dah vaduka back ytan</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['psi', 'mana', 'suaranya', 'nih', 'partai', 'anak', 'muda', 'emang', 'kritis', 'gitu', 'lhoo']</t>
+          <t>['rt', 'gw', 'kumpulin', 'dimari', 'dah', 'vaduka', 'back', 'ytan']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'gue', 'kumpulkan', 'dimari', 'sudah', 'vaduka', 'back', 'ytan']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['psi', 'suaranya', 'partai', 'anak', 'muda', 'emang', 'kritis', 'gitu', 'lhoo']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['psi', 'suara', 'partai', 'anak', 'muda', 'emang', 'kritis', 'gitu', 'lhoo']</t>
+          <t>['gue', 'kumpulkan', 'dimari', 'vaduka', 'back', 'ytan']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['gue', 'kumpul', 'mari', 'vaduka', 'back', 'ytan']</t>
         </is>
       </c>
     </row>
@@ -1963,34 +2194,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16188</v>
+        <v>26955</v>
       </c>
       <c r="C44" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ada datanya kalau pintar terlalu sulit bagimu minimal dungu jangan melampaui limit</t>
+          <t>ada kekuatan besar di belakang moeldoko yang buat jokowi tak berdaya kalau tak berdaya berarti bukan ri trus</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['ada', 'datanya', 'kalau', 'pintar', 'terlalu', 'sulit', 'bagimu', 'minimal', 'dungu', 'jangan', 'melampaui', 'limit']</t>
+          <t>['ada', 'kekuatan', 'besar', 'di', 'belakang', 'moeldoko', 'yang', 'buat', 'jokowi', 'tak', 'berdaya', 'kalau', 'tak', 'berdaya', 'berarti', 'bukan', 'ri', 'trus']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['ada', 'kekuatan', 'besar', 'di', 'belakang', 'moeldoko', 'yang', 'buat', 'jokowi', 'tak', 'berdaya', 'kalau', 'tak', 'berdaya', 'berarti', 'bukan', 'ri', 'terus']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['datanya', 'pintar', 'sulit', 'bagimu', 'minimal', 'dungu', 'melampaui', 'limit']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['data', 'pintar', 'sulit', 'bagi', 'minimal', 'dungu', 'lampau', 'limit']</t>
+          <t>['kekuatan', 'moeldoko', 'jokowi', 'berdaya', 'berdaya', 'ri']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['kuat', 'moeldoko', 'jokowi', 'daya', 'daya', 'ri']</t>
         </is>
       </c>
     </row>
@@ -1999,34 +2235,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16189</v>
+        <v>26956</v>
       </c>
       <c r="C45" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>teroris ada datanya asa kamalantong se muncuang ang ntek</t>
+          <t>habib rizieq terancam tahun penjara ada tuhan yang menyaksikan kalian tak akan lepas dari hukumnya didunia dan diakherat</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['teroris', 'ada', 'datanya', 'asa', 'kamalantong', 'se', 'muncuang', 'ang', 'ntek']</t>
+          <t>['habib', 'rizieq', 'terancam', 'tahun', 'penjara', 'ada', 'tuhan', 'yang', 'menyaksikan', 'kalian', 'tak', 'akan', 'lepas', 'dari', 'hukumnya', 'didunia', 'dan', 'diakherat']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['habib', 'rizieq', 'terancam', 'tahun', 'penjara', 'ada', 'tuhan', 'yang', 'menyaksikan', 'kalian', 'tak', 'akan', 'lepas', 'dari', 'hukumnya', 'di, dunia', 'dan', 'diakherat']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['teroris', 'datanya', 'asa', 'kamalantong', 'muncuang', 'ang', 'ntek']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['teroris', 'data', 'asa', 'kamalantong', 'muncuang', 'ang', 'ntek']</t>
+          <t>['habib', 'rizieq', 'terancam', 'penjara', 'tuhan', 'menyaksikan', 'lepas', 'hukumnya', 'di, dunia', 'diakherat']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['habib', 'rizieq', 'ancam', 'penjara', 'tuhan', 'saksi', 'lepas', 'hukum', 'di dunia', 'diakherat']</t>
         </is>
       </c>
     </row>
@@ -2035,34 +2276,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16190</v>
+        <v>26957</v>
       </c>
       <c r="C46" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>biasanya kalau ada maunya langsung keluarkan perpres kok sekarang beda sebenarnya yang disampaikan itu beneran</t>
+          <t>nadiem makarim kaget ada isu mata pelajaran agama dihapus kalau para pengelola kebijakan kagetan trus bijimana</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['biasanya', 'kalau', 'ada', 'maunya', 'langsung', 'keluarkan', 'perpres', 'kok', 'sekarang', 'beda', 'sebenarnya', 'yang', 'disampaikan', 'itu', 'beneran']</t>
+          <t>['nadiem', 'makarim', 'kaget', 'ada', 'isu', 'mata', 'pelajaran', 'agama', 'dihapus', 'kalau', 'para', 'pengelola', 'kebijakan', 'kagetan', 'trus', 'bijimana']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['nadiem', 'makarim', 'kaget', 'ada', 'isu', 'mata', 'pelajaran', 'agama', 'dihapus', 'kalau', 'para', 'pengelola', 'kebijakan', 'kagetan', 'terus', 'bagaimana']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['maunya', 'langsung', 'keluarkan', 'perpres', 'beda', 'beneran']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['mau', 'langsung', 'keluar', 'pres', 'beda', 'beneran']</t>
+          <t>['nadiem', 'makarim', 'kaget', 'isu', 'mata', 'pelajaran', 'agama', 'dihapus', 'pengelola', 'kebijakan', 'kagetan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['nadiem', 'makarim', 'kaget', 'isu', 'mata', 'ajar', 'agama', 'hapus', 'kelola', 'bijak', 'kaget']</t>
         </is>
       </c>
     </row>
@@ -2071,34 +2317,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16191</v>
+        <v>26958</v>
       </c>
       <c r="C47" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>hello polisi kenapa bangunan di km diratakan dengan tanah sementara kasus hukum atas pembunuhan warga bang</t>
+          <t>puan ingin istiqlal kian terbuka bagi non muslim gak ngerti dan gak punya agama bedanya tipis cilakanya kalau</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['hello', 'polisi', 'kenapa', 'bangunan', 'di', 'km', 'diratakan', 'dengan', 'tanah', 'sementara', 'kasus', 'hukum', 'atas', 'pembunuhan', 'warga', 'bang']</t>
+          <t>['puan', 'ingin', 'istiqlal', 'kian', 'terbuka', 'bagi', 'non', 'muslim', 'gak', 'ngerti', 'dan', 'gak', 'punya', 'agama', 'bedanya', 'tipis', 'cilakanya', 'kalau']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['puan', 'ingin', 'istiqlal', 'kian', 'terbuka', 'bagi', 'non', 'muslim', 'tidak', 'mengerti', 'dan', 'tidak', 'punya', 'agama', 'bedanya', 'tipis', 'cilakanya', 'kalau']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['hello', 'polisi', 'bangunan', 'km', 'diratakan', 'tanah', 'hukum', 'pembunuhan', 'warga', 'bang']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['hello', 'polisi', 'bangun', 'km', 'rata', 'tanah', 'hukum', 'bunuh', 'warga', 'bang']</t>
+          <t>['puan', 'istiqlal', 'kian', 'terbuka', 'non', 'muslim', 'mengerti', 'agama', 'bedanya', 'tipis', 'cilakanya']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['puan', 'istiqlal', 'kian', 'buka', 'non', 'muslim', 'erti', 'agama', 'beda', 'tipis', 'cilakanya']</t>
         </is>
       </c>
     </row>
@@ -2107,34 +2358,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16192</v>
+        <v>26959</v>
       </c>
       <c r="C48" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>titip link online shop kawan</t>
+          <t>baru jam siang sudah tiga kali ada teriakan pakeeeeettttt</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['titip', 'link', 'online', 'shop', 'kawan']</t>
+          <t>['baru', 'jam', 'siang', 'sudah', 'tiga', 'kali', 'ada', 'teriakan', 'pakeeeeettttt']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['baru', 'jam', 'siang', 'sudah', 'tiga', 'kali', 'ada', 'teriakan', 'pakeeeeettttt']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['titip', 'link', 'online', 'shop', 'kawan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['titip', 'link', 'online', 'shop', 'kawan']</t>
+          <t>['jam', 'siang', 'kali', 'teriakan', 'pakeeeeettttt']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['jam', 'siang', 'kali', 'ria', 'pakeeeeettttt']</t>
         </is>
       </c>
     </row>
@@ -2143,34 +2399,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16193</v>
+        <v>26960</v>
       </c>
       <c r="C49" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt up</t>
+          <t>pantes udah banyak tandatandanya selama ini</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'up']</t>
+          <t>['pantes', 'udah', 'banyak', 'tandatandanya', 'selama', 'ini']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['pantas', 'sudah', 'banyak', 'tandatandanya', 'selama', 'ini']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['up']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['up']</t>
+          <t>['tandatandanya']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['tandatandanya']</t>
         </is>
       </c>
     </row>
@@ -2179,34 +2440,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16194</v>
+        <v>26961</v>
       </c>
       <c r="C50" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt tegakanlah keadilan sesuai amanah uud</t>
+          <t>klarifikasi soal hilangnya frasa agama dalam peta jalan pendidikan kemendikbud belum final keburu ketahuan kal</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'tegakanlah', 'keadilan', 'sesuai', 'amanah', 'uud']</t>
+          <t>['klarifikasi', 'soal', 'hilangnya', 'frasa', 'agama', 'dalam', 'peta', 'jalan', 'pendidikan', 'kemendikbud', 'belum', 'final', 'keburu', 'ketahuan', 'kal']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['klarifikasi', 'soal', 'hilangnya', 'frasa', 'agama', 'dalam', 'peta', 'jalan', 'pendidikan', 'kementerian, pendidikan, dan, kebudayaan', 'belum', 'final', 'keburu', 'ketahuan', 'kal']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['tegakanlah', 'keadilan', 'sesuai', 'amanah', 'uud']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['tega', 'adil', 'sesuai', 'amanah', 'uud']</t>
+          <t>['klarifikasi', 'hilangnya', 'frasa', 'agama', 'peta', 'jalan', 'pendidikan', 'kementerian, pendidikan, dan, kebudayaan', 'final', 'keburu', 'ketahuan', 'kal']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['klarifikasi', 'hilang', 'frasa', 'agama', 'peta', 'jalan', 'didik', 'menteri didik dan budaya', 'final', 'keburu', 'tahu', 'kal']</t>
         </is>
       </c>
     </row>
@@ -2215,34 +2481,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16195</v>
+        <v>26962</v>
       </c>
       <c r="C51" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt gaskeun</t>
+          <t>yuri gagarin tokoh cccp simbol perlawanan anti komunis amp anti pki</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'gaskeun']</t>
+          <t>['yuri', 'gagarin', 'tokoh', 'cccp', 'simbol', 'perlawanan', 'anti', 'komunis', 'amp', 'anti', 'pki']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['yuri', 'gagarin', 'tokoh', 'cccp', 'simbol', 'perlawanan', 'anti', 'komunis', 'amp', 'anti', 'partai, komunis, indonesia']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['gaskeun']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['gaskeun']</t>
+          <t>['yuri', 'gagarin', 'tokoh', 'cccp', 'simbol', 'perlawanan', 'anti', 'komunis', 'anti', 'partai, komunis, indonesia']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['yuri', 'gagarin', 'tokoh', 'cccp', 'simbol', 'lawan', 'anti', 'komunis', 'anti', 'partai komunis indonesia']</t>
         </is>
       </c>
     </row>
@@ -2251,34 +2522,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16196</v>
+        <v>26963</v>
       </c>
       <c r="C52" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ayo tetap fokus usut sampai tuntas tragedi pembantaian syuhada laskar fpi di km</t>
+          <t>oknum polisi di jatim dari tingkat polsek hingga polda diduga terlibat peredaran narkoba waduh pengayom masyarak</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['ayo', 'tetap', 'fokus', 'usut', 'sampai', 'tuntas', 'tragedi', 'pembantaian', 'syuhada', 'laskar', 'fpi', 'di', 'km']</t>
+          <t>['oknum', 'polisi', 'di', 'jatim', 'dari', 'tingkat', 'polsek', 'hingga', 'polda', 'diduga', 'terlibat', 'peredaran', 'narkoba', 'waduh', 'pengayom', 'masyarak']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['oknum', 'polisi', 'di', 'jawa, timur', 'dari', 'tingkat', 'kepolisian, sektor', 'hingga', 'kepolisian, daerah', 'diduga', 'terlibat', 'peredaran', 'narkoba', 'waduh', 'pengayom', 'masyarak']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['ayo', 'fokus', 'usut', 'tuntas', 'tragedi', 'pembantaian', 'syuhada', 'laskar', 'fpi', 'km']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['ayo', 'fokus', 'usut', 'tuntas', 'tragedi', 'bantai', 'syuhada', 'laskar', 'fpi', 'km']</t>
+          <t>['oknum', 'polisi', 'jawa, timur', 'tingkat', 'kepolisian, sektor', 'kepolisian, daerah', 'diduga', 'terlibat', 'peredaran', 'narkoba', 'pengayom', 'masyarak']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['oknum', 'polisi', 'jawa timur', 'tingkat', 'polisi sektor', 'polisi daerah', 'duga', 'libat', 'edar', 'narkoba', 'ayom', 'masyarak']</t>
         </is>
       </c>
     </row>
@@ -2287,32 +2563,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16197</v>
+        <v>26964</v>
       </c>
       <c r="C53" t="n">
-        <v>203</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>rt</t>
-        </is>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2323,34 +2600,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16198</v>
+        <v>26965</v>
       </c>
       <c r="C54" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>cuap dikit bray biar ga dikira akun bot</t>
+          <t>tka china dipekerjakan di proyek smelter kayak lagu hiduplah tanahmu hiduplah negerimu rakyatmu bang</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['cuap', 'dikit', 'bray', 'biar', 'ga', 'dikira', 'akun', 'bot']</t>
+          <t>['tka', 'china', 'dipekerjakan', 'di', 'proyek', 'smelter', 'kayak', 'lagu', 'hiduplah', 'tanahmu', 'hiduplah', 'negerimu', 'rakyatmu', 'bang']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['tenaga, kerja, asing', 'cina', 'dipekerjakan', 'di', 'proyek', 'smelter', 'kayak', 'lagu', 'hiduplah', 'tanahmu', 'hiduplah', 'negerimu', 'rakyatmu', 'bang']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['cuap', 'dikit', 'bray', 'akun', 'bot']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['cuap', 'dikit', 'bray', 'akun', 'bot']</t>
+          <t>['tenaga, kerja, asing', 'cina', 'dipekerjakan', 'proyek', 'smelter', 'kayak', 'lagu', 'hiduplah', 'tanahmu', 'hiduplah', 'negerimu', 'rakyatmu', 'bang']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['tenaga kerja asing', 'cina', 'kerja', 'proyek', 'smelter', 'kayak', 'lagu', 'hidup', 'tanah', 'hidup', 'negeri', 'rakyat', 'bang']</t>
         </is>
       </c>
     </row>
@@ -2359,34 +2641,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16199</v>
+        <v>26966</v>
       </c>
       <c r="C55" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt hadir</t>
+          <t>soe hok gie pernah bilang siapakah yang bertanggung jawab atas hal ini mereka generasi tua soekarno ali iskak</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'hadir']</t>
+          <t>['soe', 'hok', 'gie', 'pernah', 'bilang', 'siapakah', 'yang', 'bertanggung', 'jawab', 'atas', 'hal', 'ini', 'mereka', 'generasi', 'tua', 'soekarno', 'ali', 'iskak']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['soe', 'ahok', 'gie', 'pernah', 'bilang', 'siapakah', 'yang', 'bertanggung', 'jawab', 'atas', 'hal', 'ini', 'mereka', 'generasi', 'tua', 'soekarno', 'ali', 'iskak']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['hadir']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['hadir']</t>
+          <t>['soe', 'ahok', 'gie', 'bertanggung', 'generasi', 'tua', 'soekarno', 'ali', 'iskak']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['soe', 'ahok', 'gie', 'tanggung', 'generasi', 'tua', 'soekarno', 'ali', 'iskak']</t>
         </is>
       </c>
     </row>
@@ -2395,34 +2682,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16200</v>
+        <v>26967</v>
       </c>
       <c r="C56" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt drama tiap hari brmunculan yg brtujuan mngaburkan peristiwa km</t>
+          <t xml:space="preserve">polda jabar serahkan kasus denny siregar ke mabes polri lama ditunggu endingnya gitu kenapa tidak sejak awal </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'drama', 'tiap', 'hari', 'brmunculan', 'yg', 'brtujuan', 'mngaburkan', 'peristiwa', 'km']</t>
+          <t>['polda', 'jabar', 'serahkan', 'kasus', 'denny', 'siregar', 'ke', 'mabes', 'polri', 'lama', 'ditunggu', 'endingnya', 'gitu', 'kenapa', 'tidak', 'sejak', 'awal']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kepolisian, daerah', 'jabar', 'serahkan', 'kasus', 'denny', 'siregar', 'ke', 'markas, besar', 'kepolisian, republik, indonesia', 'lama', 'ditunggu', 'akhirnya', 'begitu', 'kenapa', 'tidak', 'sejak', 'awal']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['drama', 'brmunculan', 'brtujuan', 'mngaburkan', 'peristiwa', 'km']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['drama', 'brmunculan', 'brtujuan', 'mngaburkan', 'peristiwa', 'km']</t>
+          <t>['kepolisian, daerah', 'jabar', 'serahkan', 'denny', 'siregar', 'markas, besar', 'kepolisian, republik, indonesia', 'ditunggu']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['polisi daerah', 'jabar', 'serah', 'denny', 'siregar', 'markas besar', 'polisi republik indonesia', 'tunggu']</t>
         </is>
       </c>
     </row>
@@ -2431,34 +2723,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16201</v>
+        <v>26968</v>
       </c>
       <c r="C57" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>masa korban di rilis eh predatornya tidak smeleheuwkeun deui bray</t>
+          <t>reaksi jokowi kaget ia tak tahu moeldoko terlibat kudeta demokrat mahfud ia betulbetul tak tahu benar kata or</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['masa', 'korban', 'di', 'rilis', 'eh', 'predatornya', 'tidak', 'smeleheuwkeun', 'deui', 'bray']</t>
+          <t>['reaksi', 'jokowi', 'kaget', 'ia', 'tak', 'tahu', 'moeldoko', 'terlibat', 'kudeta', 'demokrat', 'mahfud', 'ia', 'betulbetul', 'tak', 'tahu', 'benar', 'kata', 'or']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['reaksi', 'jokowi', 'kaget', 'ia', 'tak', 'tahu', 'moeldoko', 'terlibat', 'kudeta', 'demokrat', 'mahfud', 'ia', 'betulbetul', 'tak', 'tahu', 'benar', 'kata', 'orang']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['korban', 'rilis', 'eh', 'predatornya', 'smeleheuwkeun', 'deui', 'bray']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['korban', 'rilis', 'eh', 'predator', 'smeleheuwkeun', 'deui', 'bray']</t>
+          <t>['reaksi', 'jokowi', 'kaget', 'moeldoko', 'terlibat', 'kudeta', 'demokrat', 'mahfud', 'betulbetul', 'orang']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['reaksi', 'jokowi', 'kaget', 'moeldoko', 'libat', 'kudeta', 'demokrat', 'mahfud', 'betulbetul', 'orang']</t>
         </is>
       </c>
     </row>
@@ -2467,34 +2764,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16202</v>
+        <v>26969</v>
       </c>
       <c r="C58" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt up terus</t>
+          <t>mahfud presiden tak ikut campur investigasi kasus tewasnya laskar fpi ya iya lah memang presiden penyidik mak</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'up', 'terus']</t>
+          <t>['mahfud', 'presiden', 'tak', 'ikut', 'campur', 'investigasi', 'kasus', 'tewasnya', 'laskar', 'fpi', 'ya', 'iya', 'lah', 'memang', 'presiden', 'penyidik', 'mak']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mahfud', 'presiden', 'tak', 'ikut', 'campur', 'investigasi', 'kasus', 'tewasnya', 'laskar', 'front, pembela, islam', 'ya', 'iya', 'lah', 'memang', 'presiden', 'penyidik', 'mak']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['up']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['up']</t>
+          <t>['mahfud', 'presiden', 'campur', 'investigasi', 'tewasnya', 'laskar', 'front, pembela, islam', 'iya', 'presiden', 'penyidik', 'mak']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['mahfud', 'presiden', 'campur', 'investigasi', 'tewas', 'laskar', 'front bela islam', 'iya', 'presiden', 'sidik', 'mak']</t>
         </is>
       </c>
     </row>
@@ -2503,34 +2805,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16203</v>
+        <v>26970</v>
       </c>
       <c r="C59" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rt semoga cepat di demi keadilan</t>
+          <t>ini beneran jenderal dan ini beneran pemimpin pemimpin musti memiliki ketegasan tabik kalau pemimpin kagetan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'cepat', 'di', 'demi', 'keadilan']</t>
+          <t>['ini', 'beneran', 'jenderal', 'dan', 'ini', 'beneran', 'pemimpin', 'pemimpin', 'musti', 'memiliki', 'ketegasan', 'tabik', 'kalau', 'pemimpin', 'kagetan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ini', 'benaran', 'jenderal', 'dan', 'ini', 'benaran', 'pemimpin', 'pemimpin', 'harus', 'memiliki', 'ketegasan', 'tabik', 'kalau', 'pemimpin', 'kagetan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['semoga', 'cepat', 'keadilan']</t>
+          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['moga', 'cepat', 'adil']</t>
+          <t>['benaran', 'jenderal', 'benaran', 'pemimpin', 'pemimpin', 'memiliki', 'ketegasan', 'tabik', 'pemimpin', 'kagetan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['benar', 'jenderal', 'benar', 'pimpin', 'pimpin', 'milik', 'tegas', 'tabik', 'pimpin', 'kaget']</t>
         </is>
       </c>
     </row>
@@ -2539,34 +2846,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16204</v>
+        <v>26971</v>
       </c>
       <c r="C60" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>kita smeleheuwkeun malam ini bray tantjap gasss rem blong</t>
+          <t xml:space="preserve">luhut soal china apa saja yang kita minta dia mau tapi luhut tak menyampaikan apa saja yang kita punya dia </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['kita', 'smeleheuwkeun', 'malam', 'ini', 'bray', 'tantjap', 'gasss', 'rem', 'blong']</t>
+          <t>['luhut', 'soal', 'china', 'apa', 'saja', 'yang', 'kita', 'minta', 'dia', 'mau', 'tapi', 'luhut', 'tak', 'menyampaikan', 'apa', 'saja', 'yang', 'kita', 'punya', 'dia']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['luhut', 'soal', 'cina', 'apa', 'saja', 'yang', 'kita', 'meminta', 'dia', 'mau', 'tapi', 'luhut', 'tak', 'menyampaikan', 'apa', 'saja', 'yang', 'kita', 'punya', 'dia']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['smeleheuwkeun', 'malam', 'bray', 'tantjap', 'gasss', 'rem', 'blong']</t>
+          <t>&lt;FreqDist with 14 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['smeleheuwkeun', 'malam', 'bray', 'tantjap', 'gasss', 'rem', 'blong']</t>
+          <t>['luhut', 'cina', 'luhut']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['luhut', 'cina', 'luhut']</t>
         </is>
       </c>
     </row>
@@ -2575,34 +2887,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16205</v>
+        <v>26972</v>
       </c>
       <c r="C61" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt siap tancap</t>
+          <t>luhut pandjaitan saya sedih anak muda lacurkan profesionalisme demi uang setuju dan saya juga sedih anak tua la</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'siap', 'tancap']</t>
+          <t>['luhut', 'pandjaitan', 'saya', 'sedih', 'anak', 'muda', 'lacurkan', 'profesionalisme', 'demi', 'uang', 'setuju', 'dan', 'saya', 'juga', 'sedih', 'anak', 'tua', 'la']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['luhut', 'pandjaitan', 'saya', 'sedih', 'anak', 'muda', 'lacurkan', 'profesionalisme', 'demi', 'uang', 'setuju', 'dan', 'saya', 'juga', 'sedih', 'anak', 'tua', 'lah']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['tancap']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['tancap']</t>
+          <t>['luhut', 'pandjaitan', 'sedih', 'anak', 'muda', 'lacurkan', 'profesionalisme', 'uang', 'setuju', 'sedih', 'anak', 'tua']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['luhut', 'pandjaitan', 'sedih', 'anak', 'muda', 'lacur', 'profesionalisme', 'uang', 'tuju', 'sedih', 'anak', 'tua']</t>
         </is>
       </c>
     </row>
@@ -2611,34 +2928,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16206</v>
+        <v>26973</v>
       </c>
       <c r="C62" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt corason hadir</t>
+          <t>luhut ogah mengemis investasi ke tesla hey you need us ya jangan mengemis bapak kan tajer eh maksudnya indo</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'corason', 'hadir']</t>
+          <t>['luhut', 'ogah', 'mengemis', 'investasi', 'ke', 'tesla', 'hey', 'you', 'need', 'us', 'ya', 'jangan', 'mengemis', 'bapak', 'kan', 'tajer', 'eh', 'maksudnya', 'indo']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['luhut', 'ogah', 'mengemis', 'investasi', 'ke', 'tesla', 'he', 'kamu', 'need', 'us', 'ya', 'jangan', 'mengemis', 'bapak', 'kan', 'tajer', 'eh', 'maksudnya', 'indonesia']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['corason', 'hadir']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['corason', 'hadir']</t>
+          <t>['luhut', 'ogah', 'mengemis', 'investasi', 'tesla', 'he', 'need', 'us', 'mengemis', 'tajer', 'eh', 'maksudnya', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['luhut', 'ogah', 'emis', 'investasi', 'tesla', 'he', 'need', 'us', 'emis', 'tajer', 'eh', 'maksud', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2647,34 +2969,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16207</v>
+        <v>26974</v>
       </c>
       <c r="C63" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt wooooiii</t>
+          <t>dan mantan gubernur dki jakarta itu tak akan membeli tanah milik pemprov dki jakarta yang berada dalam pemeliharaan</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'wooooiii']</t>
+          <t>['dan', 'mantan', 'gubernur', 'dki', 'jakarta', 'itu', 'tak', 'akan', 'membeli', 'tanah', 'milik', 'pemprov', 'dki', 'jakarta', 'yang', 'berada', 'dalam', 'pemeliharaan']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['dan', 'mantan', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'itu', 'tak', 'akan', 'membeli', 'tanah', 'milik', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'yang', 'berada', 'dalam', 'pemeliharaan']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['wooooiii']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['wooooiii']</t>
+          <t>['mantan', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'membeli', 'tanah', 'milik', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'pemeliharaan']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['mantan', 'gubernur', 'daerah khusus ibukota', 'jakarta', 'beli', 'tanah', 'milik', 'perintah provinsi', 'daerah khusus ibukota', 'jakarta', 'pelihara']</t>
         </is>
       </c>
     </row>
@@ -2683,34 +3010,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16208</v>
+        <v>26975</v>
       </c>
       <c r="C64" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt jo cihuuy</t>
+          <t>kasus naik penyidikan anggota polda metro jaya calon tersangka pembunuhan yang perintahkan penguntitan hingga</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'jo', 'cihuuy']</t>
+          <t>['kasus', 'naik', 'penyidikan', 'anggota', 'polda', 'metro', 'jaya', 'calon', 'tersangka', 'pembunuhan', 'yang', 'perintahkan', 'penguntitan', 'hingga']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kasus', 'naik', 'penyidikan', 'anggota', 'kepolisian, daerah', 'metro', 'jaya', 'calon', 'tersangka', 'pembunuhan', 'yang', 'perintahkan', 'penguntitan', 'hingga']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['jo', 'cihuuy']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['jo', 'cihuuy']</t>
+          <t>['penyidikan', 'anggota', 'kepolisian, daerah', 'metro', 'jaya', 'calon', 'tersangka', 'pembunuhan', 'perintahkan', 'penguntitan']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['sidi', 'anggota', 'polisi daerah', 'metro', 'jaya', 'calon', 'sangka', 'bunuh', 'perintah', 'kuntit']</t>
         </is>
       </c>
     </row>
@@ -2719,34 +3051,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16209</v>
+        <v>26976</v>
       </c>
       <c r="C65" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt naikan lagi</t>
+          <t>moeldoko terpilih jadi ketum partai demokrat versi klb ali mocthar ngabalin bravo pak moel sesama hyena memang</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'naikan', 'lagi']</t>
+          <t>['moeldoko', 'terpilih', 'jadi', 'ketum', 'partai', 'demokrat', 'versi', 'klb', 'ali', 'mocthar', 'ngabalin', 'bravo', 'pak', 'moel', 'sesama', 'hyena', 'memang']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['moeldoko', 'terpilih', 'jadi', 'ketua, umum', 'partai', 'demokrat', 'versi', 'klb', 'ali', 'mocthar', 'ngabalin', 'bravo', 'pak', 'moeldoko', 'sesama', 'hyena', 'memang']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['naikan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['naik']</t>
+          <t>['moeldoko', 'terpilih', 'ketua, umum', 'partai', 'demokrat', 'versi', 'klb', 'ali', 'mocthar', 'ngabalin', 'bravo', 'moeldoko', 'hyena']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'pilih', 'ketua umum', 'partai', 'demokrat', 'versi', 'klb', 'ali', 'mocthar', 'ngabalin', 'bravo', 'moeldoko', 'hyena']</t>
         </is>
       </c>
     </row>
@@ -2755,34 +3092,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16210</v>
+        <v>26977</v>
       </c>
       <c r="C66" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt galasca hadir keadilan harus tegak</t>
+          <t>dari ruang gelap mentafsiri kadal gurun sekehendak hatinya sementara tampilan dia juga kadal gurun dia bukan kada</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'galasca', 'hadir', 'keadilan', 'harus', 'tegak']</t>
+          <t>['dari', 'ruang', 'gelap', 'mentafsiri', 'kadal', 'gurun', 'sekehendak', 'hatinya', 'sementara', 'tampilan', 'dia', 'juga', 'kadal', 'gurun', 'dia', 'bukan', 'kada']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['dari', 'ruang', 'gelap', 'mentafsiri', 'kadal', 'gurun', 'sekehendak', 'hatinya', 'sementara', 'tampilan', 'dia', 'juga', 'kadal', 'gurun', 'dia', 'bukan', 'kada']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['galasca', 'hadir', 'keadilan', 'tegak']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['galasca', 'hadir', 'adil', 'tegak']</t>
+          <t>['ruang', 'gelap', 'mentafsiri', 'kadal', 'gurun', 'sekehendak', 'hatinya', 'tampilan', 'kadal', 'gurun', 'kada']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['ruang', 'gelap', 'tafsir', 'kadal', 'gurun', 'hendak', 'hati', 'tampil', 'kadal', 'gurun', 'kada']</t>
         </is>
       </c>
     </row>
@@ -2791,34 +3133,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16211</v>
+        <v>26978</v>
       </c>
       <c r="C67" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>yang shift malam mana suaranya</t>
+          <t>mahfud sebut polisi diejek karena laskar fpi yang tewas jadi tsk justru polisi dipuji karena tak mudah hadirka</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['yang', 'shift', 'malam', 'mana', 'suaranya']</t>
+          <t>['mahfud', 'sebut', 'polisi', 'diejek', 'karena', 'laskar', 'fpi', 'yang', 'tewas', 'jadi', 'tsk', 'justru', 'polisi', 'dipuji', 'karena', 'tak', 'mudah', 'hadirka']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['mahfud', 'sebut', 'polisi', 'diejek', 'karena', 'laskar', 'front, pembela, islam', 'yang', 'tewas', 'jadi', 'tersangka', 'justru', 'polisi', 'dipuji', 'karena', 'tak', 'mudah', 'hadirka']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['shift', 'malam', 'suaranya']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['shift', 'malam', 'suara']</t>
+          <t>['mahfud', 'polisi', 'diejek', 'laskar', 'front, pembela, islam', 'tewas', 'tersangka', 'polisi', 'dipuji', 'mudah', 'hadirka']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['mahfud', 'polisi', 'ejek', 'laskar', 'front bela islam', 'tewas', 'sangka', 'polisi', 'puji', 'mudah', 'hadirka']</t>
         </is>
       </c>
     </row>
@@ -2827,34 +3174,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16212</v>
+        <v>26979</v>
       </c>
       <c r="C68" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt wallah lupa gak colek ay world cc je</t>
+          <t>gagal gaet tesla luhut pepet vw kalau gagal lagi gaet saja esemka jangankan gaet dipeluk juga gapapa</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'wallah', 'lupa', 'gak', 'colek', 'ay', 'world', 'cc', 'je']</t>
+          <t>['gagal', 'gaet', 'tesla', 'luhut', 'pepet', 'vw', 'kalau', 'gagal', 'lagi', 'gaet', 'saja', 'esemka', 'jangankan', 'gaet', 'dipeluk', 'juga', 'gapapa']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['gagal', 'gaet', 'tesla', 'luhut', 'pepet', 'vw', 'kalau', 'gagal', 'lagi', 'gaet', 'saja', 'esemka', 'jangankan', 'gaet', 'dipeluk', 'juga', 'tidak, apa, apa']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['wallah', 'lupa', 'colek', 'ay', 'world', 'cc', 'je']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['wallah', 'lupa', 'colek', 'ay', 'world', 'cc', 'je']</t>
+          <t>['gagal', 'gaet', 'tesla', 'luhut', 'pepet', 'vw', 'gagal', 'gaet', 'esemka', 'gaet', 'dipeluk', 'tidak, apa, apa']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['gagal', 'gaet', 'tesla', 'luhut', 'pepet', 'vw', 'gagal', 'gaet', 'esemka', 'gaet', 'peluk', 'tidak apa apa']</t>
         </is>
       </c>
     </row>
@@ -2863,34 +3215,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16213</v>
+        <v>26980</v>
       </c>
       <c r="C69" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">cara mengkritik pemerintah johnny  plate bedakan antara kritik nyinyir dan fitnah yang berhak membedakannya </t>
+          <t>potensi harta karun ri rp ribu  tapi malah dianggurin makin mantap saja ngayalnya lanjutkan mimpimu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['cara', 'mengkritik', 'pemerintah', 'johnny', 'plate', 'bedakan', 'antara', 'kritik', 'nyinyir', 'dan', 'fitnah', 'yang', 'berhak', 'membedakannya']</t>
+          <t>['potensi', 'harta', 'karun', 'ri', 'rp', 'ribu', 'tapi', 'malah', 'dianggurin', 'makin', 'mantap', 'saja', 'ngayalnya', 'lanjutkan', 'mimpimu']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['potensi', 'harta', 'karun', 'ri', 'rupiah', 'ribu', 'tapi', 'malah', 'dianggurin', 'makin', 'mantap', 'saja', 'ngayalnya', 'lanjutkan', 'mimpimu']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['mengkritik', 'pemerintah', 'johnny', 'plate', 'bedakan', 'kritik', 'nyinyir', 'fitnah', 'berhak', 'membedakannya']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['kritik', 'perintah', 'johnny', 'plate', 'beda', 'kritik', 'nyinyir', 'fitnah', 'hak', 'beda']</t>
+          <t>['potensi', 'harta', 'karun', 'ri', 'rupiah', 'ribu', 'dianggurin', 'mantap', 'ngayalnya', 'lanjutkan', 'mimpimu']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['potensi', 'harta', 'karun', 'ri', 'rupiah', 'ribu', 'dianggurin', 'mantap', 'ngayalnya', 'lanjut', 'mimpi']</t>
         </is>
       </c>
     </row>
@@ -2899,34 +3256,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16214</v>
+        <v>26981</v>
       </c>
       <c r="C70" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt bismillah akun ini didedikasikan utk promosi produk tementemen umkm dan tementemen yg berjualan ditwitter silakan men</t>
+          <t>kalau kamu sebut dengan istilah dosa kenapa kamu buang frasa agama memang kamu mengerti dosa sebut saja proble</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'bismillah', 'akun', 'ini', 'didedikasikan', 'utk', 'promosi', 'produk', 'tementemen', 'umkm', 'dan', 'tementemen', 'yg', 'berjualan', 'ditwitter', 'silakan', 'men']</t>
+          <t>['kalau', 'kamu', 'sebut', 'dengan', 'istilah', 'dosa', 'kenapa', 'kamu', 'buang', 'frasa', 'agama', 'memang', 'kamu', 'mengerti', 'dosa', 'sebut', 'saja', 'proble']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kalau', 'kamu', 'sebut', 'dengan', 'istilah', 'dosa', 'kenapa', 'kamu', 'buang', 'frasa', 'agama', 'memang', 'kamu', 'mengerti', 'dosa', 'sebut', 'saja', 'proble']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['bismillah', 'akun', 'didedikasikan', 'promosi', 'produk', 'tementemen', 'umkm', 'tementemen', 'berjualan', 'ditwitter', 'silakan', 'men']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['bismillah', 'akun', 'dedikasi', 'promosi', 'produk', 'tementemen', 'umkm', 'tementemen', 'jual', 'ditwitter', 'sila', 'men']</t>
+          <t>['istilah', 'dosa', 'buang', 'frasa', 'agama', 'mengerti', 'dosa', 'proble']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['istilah', 'dosa', 'buang', 'frasa', 'agama', 'erti', 'dosa', 'proble']</t>
         </is>
       </c>
     </row>
@@ -2935,34 +3297,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16215</v>
+        <v>26982</v>
       </c>
       <c r="C71" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>yuk  nya menjilat menggonggong melapor</t>
+          <t>rt gimana lagi polkis jualan teroras teroris ormasnya jualan radikal radikul bajernya jualan intoleran kspnya gaduh main emb</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['yuk', 'nya', 'menjilat', 'menggonggong', 'melapor']</t>
+          <t>['rt', 'gimana', 'lagi', 'polkis', 'jualan', 'teroras', 'teroris', 'ormasnya', 'jualan', 'radikal', 'radikul', 'bajernya', 'jualan', 'intoleran', 'kspnya', 'gaduh', 'main', 'emb']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'bagaimana', 'lagi', 'polkis', 'jualan', 'teroras', 'teroris', 'ormasnya', 'jualan', 'radikal', 'radikul', 'bajernya', 'jualan', 'intoleran', 'kspnya', 'gaduh', 'main', 'emb']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['yuk', 'menjilat', 'menggonggong', 'melapor']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['yuk', 'jilat', 'gonggong', 'lapor']</t>
+          <t>['polkis', 'jualan', 'teroras', 'teroris', 'ormasnya', 'jualan', 'radikal', 'radikul', 'bajernya', 'jualan', 'intoleran', 'kspnya', 'gaduh', 'main', 'emb']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['polkis', 'jual', 'teroras', 'teroris', 'ormasnya', 'jual', 'radikal', 'radikul', 'bajernya', 'jual', 'intoleran', 'kspnya', 'gaduh', 'main', 'emb']</t>
         </is>
       </c>
     </row>
@@ -2971,34 +3338,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16216</v>
+        <v>26983</v>
       </c>
       <c r="C72" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>kapolri pelapor uu ite harus korban langsung penyidik uu ite harus polisi langsung jangan polisipolisian bis</t>
+          <t>peserta klb deli serdang ngaku dijanjikan rp juta tapi cuma dapat rp juta itu namanya kesuksesan yang tert</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['kapolri', 'pelapor', 'uu', 'ite', 'harus', 'korban', 'langsung', 'penyidik', 'uu', 'ite', 'harus', 'polisi', 'langsung', 'jangan', 'polisipolisian', 'bis']</t>
+          <t>['peserta', 'klb', 'deli', 'serdang', 'ngaku', 'dijanjikan', 'rp', 'juta', 'tapi', 'cuma', 'dapat', 'rp', 'juta', 'itu', 'namanya', 'kesuksesan', 'yang', 'tert']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['peserta', 'klb', 'deli', 'serdang', 'mengakui', 'dijanjikan', 'rupiah', 'juta', 'tapi', 'cuma', 'dapat', 'rupiah', 'juta', 'itu', 'namanya', 'kesuksesan', 'yang', 'tert']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['kapolri', 'pelapor', 'uu', 'ite', 'korban', 'langsung', 'penyidik', 'uu', 'ite', 'polisi', 'langsung', 'polisipolisian', 'bis']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['kapolri', 'lapor', 'uu', 'ite', 'korban', 'langsung', 'sidik', 'uu', 'ite', 'polisi', 'langsung', 'polisipolisian', 'bis']</t>
+          <t>['peserta', 'klb', 'deli', 'serdang', 'mengakui', 'dijanjikan', 'rupiah', 'juta', 'rupiah', 'juta', 'namanya', 'kesuksesan', 'tert']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['serta', 'klb', 'deli', 'serdang', 'aku', 'janji', 'rupiah', 'juta', 'rupiah', 'juta', 'nama', 'sukses', 'tert']</t>
         </is>
       </c>
     </row>
@@ -3007,34 +3379,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16217</v>
+        <v>26984</v>
       </c>
       <c r="C73" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">kapolri sebut uu ite sudah tidak sehat sudah tahu gak sehat ngapain polisi jalankan apa polisinya gak sehat </t>
+          <t>pengamat jokowi tak akan pecat moeldoko karena sudah tahu sama tahu ilmunya sama ilmu apaan kesaktiannya</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['kapolri', 'sebut', 'uu', 'ite', 'sudah', 'tidak', 'sehat', 'sudah', 'tahu', 'gak', 'sehat', 'ngapain', 'polisi', 'jalankan', 'apa', 'polisinya', 'gak', 'sehat']</t>
+          <t>['pengamat', 'jokowi', 'tak', 'akan', 'pecat', 'moeldoko', 'karena', 'sudah', 'tahu', 'sama', 'tahu', 'ilmunya', 'sama', 'ilmu', 'apaan', 'kesaktiannya']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['pengamat', 'jokowi', 'tak', 'akan', 'pecat', 'moeldoko', 'karena', 'sudah', 'tahu', 'sama', 'tahu', 'ilmunya', 'sama', 'ilmu', 'apaan', 'kesaktiannya']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['kapolri', 'uu', 'ite', 'sehat', 'sehat', 'ngapain', 'polisi', 'jalankan', 'polisinya', 'sehat']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kapolri', 'uu', 'ite', 'sehat', 'sehat', 'ngapain', 'polisi', 'jalan', 'polisi', 'sehat']</t>
+          <t>['pengamat', 'jokowi', 'pecat', 'moeldoko', 'ilmunya', 'ilmu', 'kesaktiannya']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['amat', 'jokowi', 'pecat', 'moeldoko', 'ilmu', 'ilmu', 'sakti']</t>
         </is>
       </c>
     </row>
@@ -3043,34 +3420,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16218</v>
+        <v>26985</v>
       </c>
       <c r="C74" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>tim who soal covid di wuhan china bohongi dunia kalau dibilang who baru tahu kirakira akan jawab apa men</t>
+          <t>bpip tetapkan pasar bahulak sebagai pasar gotong royong dibayar mahal kerjanya cuma seperti itu uenaknya</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['tim', 'who', 'soal', 'covid', 'di', 'wuhan', 'china', 'bohongi', 'dunia', 'kalau', 'dibilang', 'who', 'baru', 'tahu', 'kirakira', 'akan', 'jawab', 'apa', 'men']</t>
+          <t>['bpip', 'tetapkan', 'pasar', 'bahulak', 'sebagai', 'pasar', 'gotong', 'royong', 'dibayar', 'mahal', 'kerjanya', 'cuma', 'seperti', 'itu', 'uenaknya']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['badan, pembinaan, ideologi, pancasila', 'tetapkan', 'pasar', 'bahulak', 'sebagai', 'pasar', 'gotong', 'royong', 'dibayar', 'mahal', 'kerjanya', 'cuma', 'seperti', 'itu', 'uenaknya']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['tim', 'who', 'covid', 'wuhan', 'china', 'bohongi', 'dunia', 'dibilang', 'who', 'kirakira', 'men']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['tim', 'who', 'covid', 'wuhan', 'china', 'bohong', 'dunia', 'bilang', 'who', 'kirakira', 'men']</t>
+          <t>['badan, pembinaan, ideologi, pancasila', 'tetapkan', 'pasar', 'bahulak', 'pasar', 'gotong', 'royong', 'dibayar', 'mahal', 'kerjanya', 'uenaknya']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['badan bina ideologi pancasila', 'tetap', 'pasar', 'bahulak', 'pasar', 'gotong', 'royong', 'bayar', 'mahal', 'kerja', 'uenaknya']</t>
         </is>
       </c>
     </row>
@@ -3079,34 +3461,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16219</v>
+        <v>26986</v>
       </c>
       <c r="C75" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>fadjroel rachman mengaku akun medsosnya diserang buzzer siapa yang beternak ya masih pakai gaya purapura bego</t>
+          <t>jenderal min aung hlaing dan jenderal moeldoko samasama pelaku kudeta trus perbedaannya dimana bedanya tipis</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['fadjroel', 'rachman', 'mengaku', 'akun', 'medsosnya', 'diserang', 'buzzer', 'siapa', 'yang', 'beternak', 'ya', 'masih', 'pakai', 'gaya', 'purapura', 'bego']</t>
+          <t>['jenderal', 'min', 'aung', 'hlaing', 'dan', 'jenderal', 'moeldoko', 'samasama', 'pelaku', 'kudeta', 'trus', 'perbedaannya', 'dimana', 'bedanya', 'tipis']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['jenderal', 'min', 'aung', 'hlaing', 'dan', 'jenderal', 'moeldoko', 'samasama', 'pelaku', 'kudeta', 'terus', 'perbedaannya', 'dimana', 'bedanya', 'tipis']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['fadjroel', 'rachman', 'mengaku', 'akun', 'medsosnya', 'diserang', 'buzzer', 'beternak', 'pakai', 'gaya', 'purapura', 'bego']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['fadjroel', 'rachman', 'aku', 'akun', 'medsosnya', 'serang', 'buzzer', 'ternak', 'pakai', 'gaya', 'purapura', 'bego']</t>
+          <t>['jenderal', 'min', 'aung', 'hlaing', 'jenderal', 'moeldoko', 'samasama', 'pelaku', 'kudeta', 'perbedaannya', 'dimana', 'bedanya', 'tipis']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['jenderal', 'min', 'aung', 'hlaing', 'jenderal', 'moeldoko', 'samasama', 'laku', 'kudeta', 'beda', 'mana', 'beda', 'tipis']</t>
         </is>
       </c>
     </row>
@@ -3115,34 +3502,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16220</v>
+        <v>26987</v>
       </c>
       <c r="C76" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">panglima tni media sosial jadi senjata baru bagi kelompok radikal om kumis kenapa urusi radikal radikul juga </t>
+          <t>pelapor abu janda haris pertama dicopot dari ketum knpi kok bisa begitu buzzer budaya kita jadi laporin buzz</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['panglima', 'tni', 'media', 'sosial', 'jadi', 'senjata', 'baru', 'bagi', 'kelompok', 'radikal', 'om', 'kumis', 'kenapa', 'urusi', 'radikal', 'radikul', 'juga']</t>
+          <t>['pelapor', 'abu', 'janda', 'haris', 'pertama', 'dicopot', 'dari', 'ketum', 'knpi', 'kok', 'bisa', 'begitu', 'buzzer', 'budaya', 'kita', 'jadi', 'laporin', 'buzz']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['pelapor', 'abu', 'janda', 'haris', 'pertama', 'dicopot', 'dari', 'ketua, umum', 'knpi', 'kok', 'bisa', 'begitu', 'buzzer', 'budaya', 'kita', 'jadi', 'laporkan', 'buzz']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['panglima', 'tni', 'media', 'sosial', 'senjata', 'kelompok', 'radikal', 'om', 'kumis', 'urusi', 'radikal', 'radikul']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['panglima', 'tni', 'media', 'sosial', 'senjata', 'kelompok', 'radikal', 'om', 'kumis', 'urus', 'radikal', 'radikul']</t>
+          <t>['pelapor', 'abu', 'janda', 'haris', 'dicopot', 'ketua, umum', 'knpi', 'buzzer', 'budaya', 'laporkan', 'buzz']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['lapor', 'abu', 'janda', 'haris', 'copot', 'ketua umum', 'knpi', 'buzzer', 'budaya', 'lapor', 'buzz']</t>
         </is>
       </c>
     </row>
@@ -3151,34 +3543,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16221</v>
+        <v>26988</v>
       </c>
       <c r="C77" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt sambil colek temen kelen contohnya sprt ini anisa qiraniayra ay</t>
+          <t xml:space="preserve">bupati lebak santet banten akan dikirim untuk ksp moeldoko ya jangan main santetan gitu tapi santet budaya </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'sambil', 'colek', 'temen', 'kelen', 'contohnya', 'sprt', 'ini', 'anisa', 'qiraniayra', 'ay']</t>
+          <t>['bupati', 'lebak', 'santet', 'banten', 'akan', 'dikirim', 'untuk', 'ksp', 'moeldoko', 'ya', 'jangan', 'main', 'santetan', 'gitu', 'tapi', 'santet', 'budaya']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['bupati', 'lebak', 'santet', 'banten', 'akan', 'dikirim', 'untuk', 'ksp', 'moeldoko', 'ya', 'jangan', 'main', 'santetan', 'begitu', 'tapi', 'santet', 'budaya']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['colek', 'temen', 'kelen', 'contohnya', 'sprt', 'anisa', 'qiraniayra', 'ay']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['colek', 'temen', 'kelen', 'contoh', 'sprt', 'anisa', 'qiraniayra', 'ay']</t>
+          <t>['bupati', 'lebak', 'santet', 'banten', 'dikirim', 'ksp', 'moeldoko', 'main', 'santetan', 'santet', 'budaya']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['bupati', 'lebak', 'santet', 'banten', 'kirim', 'ksp', 'moeldoko', 'main', 'santet', 'santet', 'budaya']</t>
         </is>
       </c>
     </row>
@@ -3187,34 +3584,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16222</v>
+        <v>26989</v>
       </c>
       <c r="C78" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>masue</t>
+          <t>aschina tersinggung jokowi gaungkan benci produk asing ksp beri penjelasan internal konteksnya internal gimana</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['masue']</t>
+          <t>['aschina', 'tersinggung', 'jokowi', 'gaungkan', 'benci', 'produk', 'asing', 'ksp', 'beri', 'penjelasan', 'internal', 'konteksnya', 'internal', 'gimana']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['aschina', 'tersinggung', 'jokowi', 'gaungkan', 'benci', 'produk', 'asing', 'ksp', 'beri', 'penjelasan', 'internal', 'konteksnya', 'internal', 'bagaimana']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['masue']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['masue']</t>
+          <t>['aschina', 'tersinggung', 'jokowi', 'gaungkan', 'benci', 'produk', 'asing', 'ksp', 'penjelasan', 'internal', 'konteksnya', 'internal']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['aschina', 'singgung', 'jokowi', 'gaung', 'benci', 'produk', 'asing', 'ksp', 'jelas', 'internal', 'konteks', 'internal']</t>
         </is>
       </c>
     </row>
@@ -3223,34 +3625,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16223</v>
+        <v>26990</v>
       </c>
       <c r="C79" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rektor ipb sebut indeks pangan indonesia lebih buruk dari ethiopia gapapa kalah yang penting menang optimis ayo</t>
+          <t>siti zuhro bagaimana ceritanya moeldoko ketum kader bukan klb tak ikut aturan ceritanya itu moel gak mampu ko</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rektor', 'ipb', 'sebut', 'indeks', 'pangan', 'indonesia', 'lebih', 'buruk', 'dari', 'ethiopia', 'gapapa', 'kalah', 'yang', 'penting', 'menang', 'optimis', 'ayo']</t>
+          <t>['siti', 'zuhro', 'bagaimana', 'ceritanya', 'moeldoko', 'ketum', 'kader', 'bukan', 'klb', 'tak', 'ikut', 'aturan', 'ceritanya', 'itu', 'moel', 'gak', 'mampu', 'ko']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['siti', 'zuhro', 'bagaimana', 'ceritanya', 'moeldoko', 'ketua, umum', 'kader', 'bukan', 'klb', 'tak', 'ikut', 'aturan', 'ceritanya', 'itu', 'moeldoko', 'tidak', 'mampu', 'kok']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['rektor', 'ipb', 'indeks', 'pangan', 'indonesia', 'buruk', 'ethiopia', 'gapapa', 'kalah', 'menang', 'optimis', 'ayo']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['rektor', 'ipb', 'indeks', 'pangan', 'indonesia', 'buruk', 'ethiopia', 'gapapa', 'kalah', 'menang', 'optimis', 'ayo']</t>
+          <t>['siti', 'zuhro', 'ceritanya', 'moeldoko', 'ketua, umum', 'kader', 'klb', 'aturan', 'ceritanya', 'moeldoko']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['siti', 'zuhro', 'cerita', 'moeldoko', 'ketua umum', 'kader', 'klb', 'atur', 'cerita', 'moeldoko']</t>
         </is>
       </c>
     </row>
@@ -3259,34 +3666,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16224</v>
+        <v>26991</v>
       </c>
       <c r="C80" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>tesla lebih memilih india ketimbang indonesia kenapa ya bilang saja gak usah malu takut kalah sama esemka kan</t>
+          <t>urusan internal demokrat tak elok ikut campur kalau libatkan internal istana buanglah sampah pada tempatnya</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['tesla', 'lebih', 'memilih', 'india', 'ketimbang', 'indonesia', 'kenapa', 'ya', 'bilang', 'saja', 'gak', 'usah', 'malu', 'takut', 'kalah', 'sama', 'esemka', 'kan']</t>
+          <t>['urusan', 'internal', 'demokrat', 'tak', 'elok', 'ikut', 'campur', 'kalau', 'libatkan', 'internal', 'istana', 'buanglah', 'sampah', 'pada', 'tempatnya']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['urusan', 'internal', 'demokrat', 'tak', 'elok', 'ikut', 'campur', 'kalau', 'libatkan', 'internal', 'istana', 'buanglah', 'sampah', 'pada', 'tempatnya']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['tesla', 'memilih', 'india', 'ketimbang', 'indonesia', 'malu', 'takut', 'kalah', 'esemka']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['tesla', 'pilih', 'india', 'ketimbang', 'indonesia', 'malu', 'takut', 'kalah', 'esemka']</t>
+          <t>['urusan', 'internal', 'demokrat', 'elok', 'campur', 'libatkan', 'internal', 'istana', 'buanglah', 'sampah', 'tempatnya']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['urus', 'internal', 'demokrat', 'elok', 'campur', 'libat', 'internal', 'istana', 'buang', 'sampah', 'tempat']</t>
         </is>
       </c>
     </row>
@@ -3295,34 +3707,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16225</v>
+        <v>26992</v>
       </c>
       <c r="C81" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>psi di indonesia selain di jakarta ada ngga sih kalau ada pasti sudah teriak extra judicial killing</t>
+          <t>mahfud pemerintah tak lindungi klb demokrat tapi tidak boleh bubarkan dia suka buat istilah yg menyengseng</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['psi', 'di', 'indonesia', 'selain', 'di', 'jakarta', 'ada', 'ngga', 'sih', 'kalau', 'ada', 'pasti', 'sudah', 'teriak', 'extra', 'judicial', 'killing']</t>
+          <t>['mahfud', 'pemerintah', 'tak', 'lindungi', 'klb', 'demokrat', 'tapi', 'tidak', 'boleh', 'bubarkan', 'dia', 'suka', 'buat', 'istilah', 'yg', 'menyengseng']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['mahfud', 'pemerintah', 'tak', 'lindungi', 'klb', 'demokrat', 'tapi', 'tidak', 'boleh', 'bubarkan', 'dia', 'suka', 'buat', 'istilah', 'yang', 'menyengseng']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['psi', 'indonesia', 'jakarta', 'ngga', 'teriak', 'extra', 'judicial', 'killing']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['psi', 'indonesia', 'jakarta', 'ngga', 'teriak', 'extra', 'judicial', 'killing']</t>
+          <t>['mahfud', 'pemerintah', 'lindungi', 'klb', 'demokrat', 'bubarkan', 'suka', 'istilah', 'menyengseng']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['mahfud', 'perintah', 'lindung', 'klb', 'demokrat', 'bubar', 'suka', 'istilah', 'menyengseng']</t>
         </is>
       </c>
     </row>
@@ -3331,34 +3748,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16226</v>
+        <v>26993</v>
       </c>
       <c r="C82" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jemaah haji indonesia ditolak bukan karena covid trus karena apa duitnya habis lalu mau ngutang dulu ohh</t>
+          <t>rt ajakan jokowi untuk benci produk asing dinilai bisa bahayakan hubungan internasional dia gak sengaja maafkanlah</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['jemaah', 'haji', 'indonesia', 'ditolak', 'bukan', 'karena', 'covid', 'trus', 'karena', 'apa', 'duitnya', 'habis', 'lalu', 'mau', 'ngutang', 'dulu', 'ohh']</t>
+          <t>['rt', 'ajakan', 'jokowi', 'untuk', 'benci', 'produk', 'asing', 'dinilai', 'bisa', 'bahayakan', 'hubungan', 'internasional', 'dia', 'gak', 'sengaja', 'maafkanlah']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'ajakan', 'jokowi', 'untuk', 'benci', 'produk', 'asing', 'dinilai', 'bisa', 'bahayakan', 'hubungan', 'internasional', 'dia', 'tidak', 'sengaja', 'maafkanlah']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['jemaah', 'haji', 'indonesia', 'ditolak', 'covid', 'trus', 'duitnya', 'habis', 'ngutang', 'ohh']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['jemaah', 'haji', 'indonesia', 'tolak', 'covid', 'trus', 'duit', 'habis', 'ngutang', 'ohh']</t>
+          <t>['ajakan', 'jokowi', 'benci', 'produk', 'asing', 'dinilai', 'bahayakan', 'hubungan', 'internasional', 'sengaja', 'maafkanlah']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['aja', 'jokowi', 'benci', 'produk', 'asing', 'nilai', 'bahaya', 'hubung', 'internasional', 'sengaja', 'maaf']</t>
         </is>
       </c>
     </row>
@@ -3367,34 +3789,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16227</v>
+        <v>26994</v>
       </c>
       <c r="C83" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vaduka jika melihat gambar ini apa yang ada dibenak sobat sekalian</t>
+          <t>bulog akan buang ribu ton beras bernilai rp miliar akibat negara terlalu maju amp kebutuhan pokok sudah dicuku</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['vaduka', 'jika', 'melihat', 'gambar', 'ini', 'apa', 'yang', 'ada', 'dibenak', 'sobat', 'sekalian']</t>
+          <t>['bulog', 'akan', 'buang', 'ribu', 'ton', 'beras', 'bernilai', 'rp', 'miliar', 'akibat', 'negara', 'terlalu', 'maju', 'amp', 'kebutuhan', 'pokok', 'sudah', 'dicuku']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['bulog', 'akan', 'buang', 'ribu', 'ton', 'beras', 'bernilai', 'rupiah', 'miliar', 'akibat', 'negara', 'terlalu', 'maju', 'amp', 'kebutuhan', 'pokok', 'sudah', 'dicuku']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['vaduka', 'gambar', 'dibenak', 'sobat']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['vaduka', 'gambar', 'benak', 'sobat']</t>
+          <t>['bulog', 'buang', 'ribu', 'ton', 'beras', 'bernilai', 'rupiah', 'miliar', 'akibat', 'negara', 'maju', 'kebutuhan', 'pokok', 'dicuku']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['bulog', 'buang', 'ribu', 'ton', 'beras', 'nila', 'rupiah', 'miliar', 'akibat', 'negara', 'maju', 'butuh', 'pokok', 'cuku']</t>
         </is>
       </c>
     </row>
@@ -3403,34 +3830,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16228</v>
+        <v>26995</v>
       </c>
       <c r="C84" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt vaduka jika melihat gambar ini apa yg ada dibenak sobat sekalian salam hormat salam santun</t>
+          <t>rt  teman yang sama ssyang saya temukan ini belum seberapa</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'vaduka', 'jika', 'melihat', 'gambar', 'ini', 'apa', 'yg', 'ada', 'dibenak', 'sobat', 'sekalian', 'salam', 'hormat', 'salam', 'santun']</t>
+          <t>['rt', 'teman', 'yang', 'sama', 'ssyang', 'saya', 'temukan', 'ini', 'belum', 'seberapa']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'teman', 'yang', 'sama', 'ssyang', 'saya', 'temukan', 'ini', 'belum', 'seberapa']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['vaduka', 'gambar', 'dibenak', 'sobat', 'salam', 'hormat', 'salam', 'santun']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['vaduka', 'gambar', 'benak', 'sobat', 'salam', 'hormat', 'salam', 'santun']</t>
+          <t>['teman', 'ssyang', 'temukan']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['teman', 'ssyang', 'temu']</t>
         </is>
       </c>
     </row>
@@ -3439,34 +3871,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16229</v>
+        <v>26996</v>
       </c>
       <c r="C85" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rt aku di barisanmu</t>
+          <t>hai kamukamu kalau duitmu banyak bagibagi napa mari kita ancurancuran</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rt', 'aku', 'di', 'barisanmu']</t>
+          <t>['hai', 'kamukamu', 'kalau', 'duitmu', 'banyak', 'bagibagi', 'napa', 'mari', 'kita', 'ancurancuran']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['hai', 'kamukamu', 'kalau', 'duitmu', 'banyak', 'bagibagi', 'kenapa', 'mari', 'kita', 'ancurancuran']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['barisanmu']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['baris']</t>
+          <t>['hai', 'kamukamu', 'duitmu', 'bagibagi', 'mari', 'ancurancuran']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['hai', 'kamukamu', 'duit', 'bagibagi', 'mari', 'ancurancuran']</t>
         </is>
       </c>
     </row>
@@ -3475,34 +3912,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16230</v>
+        <v>26997</v>
       </c>
       <c r="C86" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt chanel telegram fpi dan peoplepower  banned</t>
+          <t>saatnya kita gaungkan benci produk dari luar negeri siapa yang meminta gaungkan presiden siaappp laksanakan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'chanel', 'telegram', 'fpi', 'dan', 'peoplepower', 'banned']</t>
+          <t>['saatnya', 'kita', 'gaungkan', 'benci', 'produk', 'dari', 'luar', 'negeri', 'siapa', 'yang', 'meminta', 'gaungkan', 'presiden', 'siaappp', 'laksanakan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['saatnya', 'kita', 'gaungkan', 'benci', 'produk', 'dari', 'luar', 'negeri', 'siapa', 'yang', 'meminta', 'gaungkan', 'presiden', 'siaappp', 'laksanakan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['chanel', 'telegram', 'fpi', 'peoplepower', 'banned']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['chanel', 'telegram', 'fpi', 'peoplepower', 'banned']</t>
+          <t>['gaungkan', 'benci', 'produk', 'negeri', 'gaungkan', 'presiden', 'siaappp', 'laksanakan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['gaung', 'benci', 'produk', 'negeri', 'gaung', 'presiden', 'siaappp', 'laksana']</t>
         </is>
       </c>
     </row>
@@ -3511,34 +3953,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16231</v>
+        <v>26998</v>
       </c>
       <c r="C87" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt do  remember me the real back  am back brad</t>
+          <t>alhamdulillah warga dapat blt rp juta per kepala bulan ini maksudnya warga amrik bukan warga wakanda</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'do', 'remember', 'me', 'the', 'real', 'back', 'am', 'back', 'brad']</t>
+          <t>['alhamdulillah', 'warga', 'dapat', 'blt', 'rp', 'juta', 'per', 'kepala', 'bulan', 'ini', 'maksudnya', 'warga', 'amrik', 'bukan', 'warga', 'wakanda']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['alhamdulillah', 'warga', 'dapat', 'bantuan, langsung, tunai', 'rupiah', 'juta', 'per', 'kepala', 'bulan', 'ini', 'maksudnya', 'warga', 'amerika', 'bukan', 'warga', 'wakanda']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['do', 'remember', 'me', 'the', 'real', 'back', 'am', 'back', 'brad']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['do', 'remember', 'me', 'the', 'real', 'back', 'am', 'back', 'brad']</t>
+          <t>['alhamdulillah', 'warga', 'bantuan, langsung, tunai', 'rupiah', 'juta', 'kepala', 'maksudnya', 'warga', 'amerika', 'warga', 'wakanda']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'warga', 'bantu langsung tunai', 'rupiah', 'juta', 'kepala', 'maksud', 'warga', 'amerika', 'warga', 'wakanda']</t>
         </is>
       </c>
     </row>
@@ -3547,34 +3994,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16232</v>
+        <v>26999</v>
       </c>
       <c r="C88" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rt extra judicial killing</t>
+          <t>cargo</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'extra', 'judicial', 'killing']</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['extra', 'judicial', 'killing']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['extra', 'judicial', 'killing']</t>
+          <t>['cargo']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['cargo']</t>
         </is>
       </c>
     </row>
@@ -3583,34 +4035,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16233</v>
+        <v>27000</v>
       </c>
       <c r="C89" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt tekwer tagar ini untuk syuhada yg menjaga ibhrs di km pelakunya dan otaknya blom diusut suarakan terus mantamans</t>
+          <t>cargo</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'tekwer', 'tagar', 'ini', 'untuk', 'syuhada', 'yg', 'menjaga', 'ibhrs', 'di', 'km', 'pelakunya', 'dan', 'otaknya', 'blom', 'diusut', 'suarakan', 'terus', 'mantamans']</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['tekwer', 'tagar', 'syuhada', 'menjaga', 'ibhrs', 'km', 'pelakunya', 'otaknya', 'blom', 'diusut', 'suarakan', 'mantamans']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['tekwer', 'tagar', 'syuhada', 'jaga', 'ibhrs', 'km', 'laku', 'otak', 'blom', 'usut', 'suara', 'mantamans']</t>
+          <t>['cargo']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['cargo']</t>
         </is>
       </c>
     </row>
@@ -3619,34 +4076,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16234</v>
+        <v>27001</v>
       </c>
       <c r="C90" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>sebut oposisi banyak makan duit haram dan seperti emakemak jangan nilai orang sepertimu kamu itu</t>
+          <t>cargo</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['sebut', 'oposisi', 'banyak', 'makan', 'duit', 'haram', 'dan', 'seperti', 'emakemak', 'jangan', 'nilai', 'orang', 'sepertimu', 'kamu', 'itu']</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['oposisi', 'makan', 'duit', 'haram', 'emakemak', 'nilai', 'orang', 'sepertimu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['oposisi', 'makan', 'duit', 'haram', 'emakemak', 'nilai', 'orang', 'seperti']</t>
+          <t>['cargo']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['cargo']</t>
         </is>
       </c>
     </row>
@@ -3655,34 +4117,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16235</v>
+        <v>27002</v>
       </c>
       <c r="C91" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>pdip kinerja anies belum spektakuler seperti janji kampanye dengki ya btw memang ada kader pdip yang melebihi</t>
+          <t>cargo</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['pdip', 'kinerja', 'anies', 'belum', 'spektakuler', 'seperti', 'janji', 'kampanye', 'dengki', 'ya', 'btw', 'memang', 'ada', 'kader', 'pdip', 'yang', 'melebihi']</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['cargo']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['pdip', 'kinerja', 'anies', 'spektakuler', 'janji', 'kampanye', 'dengki', 'btw', 'kader', 'pdip', 'melebihi']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['pdip', 'kerja', 'anies', 'spektakuler', 'janji', 'kampanye', 'dengki', 'btw', 'kader', 'pdip', 'lebih']</t>
+          <t>['cargo']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['cargo']</t>
         </is>
       </c>
     </row>
@@ -3691,34 +4158,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16236</v>
+        <v>27003</v>
       </c>
       <c r="C92" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>dpr tolak perpres jokowi yang ancam sanksi warga penolak vaksin covid tumben dpr bertindak benar main ancam</t>
+          <t>rt giveaway lagi yuk bro ada hp android unit untuk orang pemenang dipilih random caranya follow</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['dpr', 'tolak', 'perpres', 'jokowi', 'yang', 'ancam', 'sanksi', 'warga', 'penolak', 'vaksin', 'covid', 'tumben', 'dpr', 'bertindak', 'benar', 'main', 'ancam']</t>
+          <t>['rt', 'giveaway', 'lagi', 'yuk', 'bro', 'ada', 'hp', 'android', 'unit', 'untuk', 'orang', 'pemenang', 'dipilih', 'random', 'caranya', 'follow']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'giveaway', 'lagi', 'yuk', 'bro', 'ada', 'handphone', 'android', 'unit', 'untuk', 'orang', 'pemenang', 'dipilih', 'random', 'caranya', 'follow']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['dpr', 'tolak', 'perpres', 'jokowi', 'ancam', 'sanksi', 'warga', 'penolak', 'vaksin', 'covid', 'tumben', 'dpr', 'bertindak', 'main', 'ancam']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['dpr', 'tolak', 'pres', 'jokowi', 'ancam', 'sanksi', 'warga', 'tolak', 'vaksin', 'covid', 'tumben', 'dpr', 'tindak', 'main', 'ancam']</t>
+          <t>['giveaway', 'yuk', 'bro', 'handphone', 'android', 'unit', 'orang', 'pemenang', 'dipilih', 'random', 'follow']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['giveaway', 'yuk', 'bro', 'handphone', 'android', 'unit', 'orang', 'menang', 'pilih', 'random', 'follow']</t>
         </is>
       </c>
     </row>
@@ -3727,34 +4199,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16237</v>
+        <v>27004</v>
       </c>
       <c r="C93" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>satgas soal testing turun libur panjang lab tak beroperasi oalah kirain karena prestasi gak jadi deh nguc</t>
+          <t>mustinya percaya hukum bukan kepada jokowi tapi jokowi itu hukum oh begitu ya sudahlah terserah saya percaya ke</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['satgas', 'soal', 'testing', 'turun', 'libur', 'panjang', 'lab', 'tak', 'beroperasi', 'oalah', 'kirain', 'karena', 'prestasi', 'gak', 'jadi', 'deh', 'nguc']</t>
+          <t>['mustinya', 'percaya', 'hukum', 'bukan', 'kepada', 'jokowi', 'tapi', 'jokowi', 'itu', 'hukum', 'oh', 'begitu', 'ya', 'sudahlah', 'terserah', 'saya', 'percaya', 'ke']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['mustinya', 'percaya', 'hukum', 'bukan', 'kepada', 'jokowi', 'tapi', 'jokowi', 'itu', 'hukum', 'oh', 'begitu', 'ya', 'sudahlah', 'terserah', 'saya', 'percaya', 'ke']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['satgas', 'testing', 'turun', 'libur', 'lab', 'beroperasi', 'oalah', 'kirain', 'prestasi', 'deh', 'nguc']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['satgas', 'testing', 'turun', 'libur', 'lab', 'operasi', 'oalah', 'kirain', 'prestasi', 'deh', 'nguc']</t>
+          <t>['mustinya', 'percaya', 'hukum', 'jokowi', 'jokowi', 'hukum', 'oh', 'terserah', 'percaya']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['mustinya', 'percaya', 'hukum', 'jokowi', 'jokowi', 'hukum', 'oh', 'serah', 'percaya']</t>
         </is>
       </c>
     </row>
@@ -3763,34 +4240,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16238</v>
+        <v>27005</v>
       </c>
       <c r="C94" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt nitip</t>
+          <t>moeldoko vs ahy pemerintah tiru rezim sby dalam kisruh pkb muhaimin dan gus dur internal pkb moeldoko itu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'nitip']</t>
+          <t>['moeldoko', 'vs', 'ahy', 'pemerintah', 'tiru', 'rezim', 'sby', 'dalam', 'kisruh', 'pkb', 'muhaimin', 'dan', 'gus', 'dur', 'internal', 'pkb', 'moeldoko', 'itu']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['moeldoko', 'lawan', 'agus, harimurti, yudhoyono', 'pemerintah', 'tiru', 'rezim', 'susilo, bambang, yudhoyono', 'dalam', 'kisruh', 'partai, kebangkitan, bangsa', 'muhaimin', 'dan', 'gus', 'dur', 'internal', 'partai, kebangkitan, bangsa', 'moeldoko', 'itu']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['nitip']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['nitip']</t>
+          <t>['moeldoko', 'lawan', 'agus, harimurti, yudhoyono', 'pemerintah', 'tiru', 'rezim', 'susilo, bambang, yudhoyono', 'kisruh', 'partai, kebangkitan, bangsa', 'muhaimin', 'gus', 'dur', 'internal', 'partai, kebangkitan, bangsa', 'moeldoko']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'lawan', 'agus harimurti yudhoyono', 'perintah', 'tiru', 'rezim', 'susilo bambang yudhoyono', 'kisruh', 'partai bangkit bangsa', 'muhaimin', 'gus', 'dur', 'internal', 'partai bangkit bangsa', 'moeldoko']</t>
         </is>
       </c>
     </row>
@@ -3799,34 +4281,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16239</v>
+        <v>27006</v>
       </c>
       <c r="C95" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>netizen do your magic</t>
+          <t>polri tidak keluarkan izin klb partai demokrat karena ilegal mustinya dikenakan pasal kerumunan ya nanti dipi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['netizen', 'do', 'your', 'magic']</t>
+          <t>['polri', 'tidak', 'keluarkan', 'izin', 'klb', 'partai', 'demokrat', 'karena', 'ilegal', 'mustinya', 'dikenakan', 'pasal', 'kerumunan', 'ya', 'nanti', 'dipi']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kepolisian, republik, indonesia', 'tidak', 'keluarkan', 'izin', 'klb', 'partai', 'demokrat', 'karena', 'ilegal', 'mustinya', 'dikenakan', 'pasal', 'kerumunan', 'ya', 'nanti', 'dipi']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['netizen', 'do', 'your', 'magic']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['netizen', 'do', 'your', 'magic']</t>
+          <t>['kepolisian, republik, indonesia', 'keluarkan', 'izin', 'klb', 'partai', 'demokrat', 'ilegal', 'mustinya', 'dikenakan', 'pasal', 'kerumunan', 'dipi']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'keluar', 'izin', 'klb', 'partai', 'demokrat', 'ilegal', 'mustinya', 'kena', 'pasal', 'kerumun', 'dipi']</t>
         </is>
       </c>
     </row>
@@ -3835,34 +4322,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16240</v>
+        <v>27007</v>
       </c>
       <c r="C96" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>pajak mobil dipangkas bpjs dinaikkan indonesia luar biasa sangat merakyat besok mau belanja mobil ah</t>
+          <t>mahfud md sejak era megawati sby hingga jokowi pemerintah tak pernah larang klb tak bisa dilarang jika interna</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['pajak', 'mobil', 'dipangkas', 'bpjs', 'dinaikkan', 'indonesia', 'luar', 'biasa', 'sangat', 'merakyat', 'besok', 'mau', 'belanja', 'mobil', 'ah']</t>
+          <t>['mahfud', 'md', 'sejak', 'era', 'megawati', 'sby', 'hingga', 'jokowi', 'pemerintah', 'tak', 'pernah', 'larang', 'klb', 'tak', 'bisa', 'dilarang', 'jika', 'interna']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['mahfud', 'md', 'sejak', 'era', 'megawati', 'susilo, bambang, yudhoyono', 'hingga', 'jokowi', 'pemerintah', 'tak', 'pernah', 'larang', 'klb', 'tak', 'bisa', 'dilarang', 'jika', 'interna']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['pajak', 'mobil', 'dipangkas', 'bpjs', 'dinaikkan', 'indonesia', 'merakyat', 'besok', 'belanja', 'mobil', 'ah']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['pajak', 'mobil', 'pangkas', 'bpjs', 'naik', 'indonesia', 'rakyat', 'besok', 'belanja', 'mobil', 'ah']</t>
+          <t>['mahfud', 'md', 'era', 'megawati', 'susilo, bambang, yudhoyono', 'jokowi', 'pemerintah', 'larang', 'klb', 'dilarang', 'interna']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['mahfud', 'md', 'era', 'megawati', 'susilo bambang yudhoyono', 'jokowi', 'perintah', 'larang', 'klb', 'larang', 'interna']</t>
         </is>
       </c>
     </row>
@@ -3871,34 +4363,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16241</v>
+        <v>27008</v>
       </c>
       <c r="C97" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt jokowi jika uu ite tak bisa beri keadilan saya minta revisi hapus pasal karet baru tersadar lumayan daripada luman</t>
+          <t>kirakira apa yang dilakukan moeldoko saat ini setelah jabatannya sebagai ketum pd online jadi bahan candaan bernafas</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'jika', 'uu', 'ite', 'tak', 'bisa', 'beri', 'keadilan', 'saya', 'minta', 'revisi', 'hapus', 'pasal', 'karet', 'baru', 'tersadar', 'lumayan', 'daripada', 'luman']</t>
+          <t>['kirakira', 'apa', 'yang', 'dilakukan', 'moeldoko', 'saat', 'ini', 'setelah', 'jabatannya', 'sebagai', 'ketum', 'pd', 'online', 'jadi', 'bahan', 'candaan', 'bernafas']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['kirakira', 'apa', 'yang', 'dilakukan', 'moeldoko', 'saat', 'ini', 'setelah', 'jabatannya', 'sebagai', 'ketua, umum', 'pada', 'online', 'jadi', 'bahan', 'candaan', 'bernafas']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['jokowi', 'uu', 'ite', 'keadilan', 'revisi', 'hapus', 'pasal', 'karet', 'tersadar', 'lumayan', 'luman']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['jokowi', 'uu', 'ite', 'adil', 'revisi', 'hapus', 'pasal', 'karet', 'sadar', 'lumayan', 'lum']</t>
+          <t>['kirakira', 'moeldoko', 'jabatannya', 'ketua, umum', 'online', 'bahan', 'candaan', 'bernafas']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['kirakira', 'moeldoko', 'jabat', 'ketua umum', 'online', 'bahan', 'canda', 'nafas']</t>
         </is>
       </c>
     </row>
@@ -3907,34 +4404,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16242</v>
+        <v>27009</v>
       </c>
       <c r="C98" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>meski nyata buzzer itu berbahaya bagi demokrasi namun tetap dipelihara kenapa mungkin buzzer itu bak candu</t>
+          <t>gibran minta pemerintah pusat prioritaskan vaksin di solo ada anak bertanya pada bapaknya bimbo</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['meski', 'nyata', 'buzzer', 'itu', 'berbahaya', 'bagi', 'demokrasi', 'namun', 'tetap', 'dipelihara', 'kenapa', 'mungkin', 'buzzer', 'itu', 'bak', 'candu']</t>
+          <t>['gibran', 'minta', 'pemerintah', 'pusat', 'prioritaskan', 'vaksin', 'di', 'solo', 'ada', 'anak', 'bertanya', 'pada', 'bapaknya', 'bimbo']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['gibran', 'meminta', 'pemerintah', 'pusat', 'prioritaskan', 'vaksin', 'di', 'solo', 'ada', 'anak', 'bertanya', 'pada', 'bapaknya', 'bimbo']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['nyata', 'buzzer', 'berbahaya', 'demokrasi', 'dipelihara', 'buzzer', 'bak', 'candu']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['nyata', 'buzzer', 'bahaya', 'demokrasi', 'pelihara', 'buzzer', 'bak', 'candu']</t>
+          <t>['gibran', 'pemerintah', 'pusat', 'prioritaskan', 'vaksin', 'solo', 'anak', 'bapaknya', 'bimbo']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['gibran', 'perintah', 'pusat', 'prioritas', 'vaksin', 'solo', 'anak', 'bapak', 'bimbo']</t>
         </is>
       </c>
     </row>
@@ -3943,34 +4445,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16243</v>
+        <v>27010</v>
       </c>
       <c r="C99" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">sengketa pilkada medan di mk gugur menantu jokowi resmi walkot syukurlah sang mertua sudah bisa bekerja tanpa </t>
+          <t>spiderman far from home</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['sengketa', 'pilkada', 'medan', 'di', 'mk', 'gugur', 'menantu', 'jokowi', 'resmi', 'walkot', 'syukurlah', 'sang', 'mertua', 'sudah', 'bisa', 'bekerja', 'tanpa']</t>
+          <t>['spiderman', 'far', 'from', 'home']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['spider, man', 'far', 'from', 'home']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['sengketa', 'pilkada', 'medan', 'mk', 'gugur', 'menantu', 'jokowi', 'resmi', 'walkot', 'syukurlah', 'sang', 'mertua']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['sengketa', 'pilkada', 'medan', 'mk', 'gugur', 'menantu', 'jokowi', 'resmi', 'walkot', 'syukur', 'sang', 'mertua']</t>
+          <t>['spider, man', 'far', 'from', 'home']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['spider man', 'far', 'from', 'home']</t>
         </is>
       </c>
     </row>
@@ -3979,34 +4486,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16244</v>
+        <v>27011</v>
       </c>
       <c r="C100" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">langgar prokes pengelola the jungle water park kami minta maaf dan kasus selesai ya selesai kan bukan hrs </t>
+          <t>bareskrim belum temukan ada pidana di rekening fpi ya dibuka dong blokirnya tunaikanlah tugas negara dengan</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['langgar', 'prokes', 'pengelola', 'the', 'jungle', 'water', 'park', 'kami', 'minta', 'maaf', 'dan', 'kasus', 'selesai', 'ya', 'selesai', 'kan', 'bukan', 'hrs']</t>
+          <t>['bareskrim', 'belum', 'temukan', 'ada', 'pidana', 'di', 'rekening', 'fpi', 'ya', 'dibuka', 'dong', 'blokirnya', 'tunaikanlah', 'tugas', 'negara', 'dengan']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['badan, reserse, kriminal', 'belum', 'temukan', 'ada', 'pidana', 'di', 'rekening', 'front, pembela, islam', 'ya', 'dibuka', 'dong', 'blokirnya', 'tunaikanlah', 'tugas', 'negara', 'dengan']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['langgar', 'prokes', 'pengelola', 'the', 'jungle', 'water', 'park', 'maaf', 'selesai', 'selesai', 'hrs']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['langgar', 'prokes', 'kelola', 'the', 'jungle', 'water', 'park', 'maaf', 'selesai', 'selesai', 'hrs']</t>
+          <t>['badan, reserse, kriminal', 'temukan', 'pidana', 'rekening', 'front, pembela, islam', 'dibuka', 'blokirnya', 'tunaikanlah', 'tugas', 'negara']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['badan reserse kriminal', 'temu', 'pidana', 'rekening', 'front bela islam', 'buka', 'blokir', 'tunai', 'tugas', 'negara']</t>
         </is>
       </c>
     </row>
@@ -4015,34 +4527,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16245</v>
+        <v>27012</v>
       </c>
       <c r="C101" t="n">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jk kalau bertanya saja tidak boleh bagaimana mau mengkritik namanya juga purapura minta dikritik bilang aja</t>
+          <t>mabuk agama itu sudahlah banyakin bercermin kamu mabuk kerja tapi hidupmu susah dan berharap wakaf dari mabuk agama</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['jk', 'kalau', 'bertanya', 'saja', 'tidak', 'boleh', 'bagaimana', 'mau', 'mengkritik', 'namanya', 'juga', 'purapura', 'minta', 'dikritik', 'bilang', 'aja']</t>
+          <t>['mabuk', 'agama', 'itu', 'sudahlah', 'banyakin', 'bercermin', 'kamu', 'mabuk', 'kerja', 'tapi', 'hidupmu', 'susah', 'dan', 'berharap', 'wakaf', 'dari', 'mabuk', 'agama']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['mabuk', 'agama', 'itu', 'sudahlah', 'perbanyak', 'bercermin', 'kamu', 'mabuk', 'kerja', 'tapi', 'hidupmu', 'susah', 'dan', 'berharap', 'wakaf', 'dari', 'mabuk', 'agama']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['jk', 'mengkritik', 'namanya', 'purapura', 'dikritik']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['jk', 'kritik', 'nama', 'purapura', 'kritik']</t>
+          <t>['mabuk', 'agama', 'perbanyak', 'bercermin', 'mabuk', 'kerja', 'hidupmu', 'susah', 'berharap', 'wakaf', 'mabuk', 'agama']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['mabuk', 'agama', 'banyak', 'cermin', 'mabuk', 'kerja', 'hidup', 'susah', 'harap', 'wakaf', 'mabuk', 'agama']</t>
         </is>
       </c>
     </row>
